--- a/deuChatbot/research_result/table_to_json(2000_500).xlsx
+++ b/deuChatbot/research_result/table_to_json(2000_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20647,6 +20647,6726 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "디자인조형학과"에 대한 정보가 없다고 주장하지만, 제공된 소스 텍스트에는 디자인조형학과의 실기시험에 대한 구체적인 정보가 포함되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 소스 텍스트와 상반된 내용을 포함하고 있습니다. 소스 텍스트는 디자인조형학과에 대한 정보를 제공하고 있지만, 생성된 응답은 그 정보가 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 있지만, 정보가 없다는 잘못된 주장을 하고 있어 관련성이 낮습니다. 소스 텍스트의 내용을 직접적으로 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 소스 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다. 정보가 없다는 주장은 소스 텍스트의 내용을 무시하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 소스 텍스트의 내용을 잘못 해석하고 있으며, 사실과 일치하지 않는 주장을 하고 있습니다. 디자인조형학과에 대한 정보가 명확히 제공되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절합니다. 소스 텍스트의 내용을 무시하고 잘못된 주장을 하고 있어 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 내용의 정확성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6231943167009416</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 "디자인조형학과" 관련 내용이 없습니다. 디자인조형학과의 실기시험에 대한 자세한 정보를 얻으려면, 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 확인해 보시거나, 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기 종목과 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 포함하고 있지만, 배점 비율에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, 화지 크기와 관련된 정보가 일부 누락되었습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, 배점 비율과 같은 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트와의 일관성을 고려할 때 점수는 3입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 제공하고 있지만, 배점 비율과 같은 부가적인 정보가 포함되어 있어 약간의 관련성 저하가 있습니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 배점 비율과 같은 추가 정보가 포함되어 있어 약간의 일관성 저하가 있습니다. 따라서 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 배점 비율과 같은 정보는 원본에 포함되어 있지 않으므로 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서의 부족함으로 인해 종합 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 배점 비율과 같은 추가 정보가 포함되어 있어 약간의 부적절함이 있습니다. 따라서 점수는 4입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 복잡할 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8254052294270138</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환' 두 가지입니다. 각 종목별 배점 비율은 다음과 같습니다:
+- 기초디자인: 총 점수 중 70%를 차지합니다.
+- 사고의 전환: 총 점수 중 30%를 차지합니다.
+준비물은 볼펜, 연필, 색연필, 수채물감 등이 필요하며, 화지는 켄트지 2절 또는 3절을 사용합니다. 시간은 각 종목 모두 5시간 동안 진행됩니다.
+실기 주제는 당일 추첨을 통해 결정되며, 예시로는 '잠자리와 저울'과 같은 연결된 주제가 선정될 수 있습니다. 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상 변경도 금지되어 있습니다.
+이러한 정보를 바탕으로 디자인조형학과의 실기 준비에 임하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9168257837732495</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 모집종목별로 인정하는 대회들은 다음과 같습니다.
+배드민턴(남)의 경우:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회(주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회들에서 우승 또는 상위권에 입상하면 인정받습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 내용, 시험 방식에 대한 설명이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 정보가 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 기초디자인 실기시험의 주제와 방식에 대해 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 왜곡이나 누락이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7868863334246551</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개를 선택하여 연결된 주제로 시험을 치릅니다. 예시로 주제들 중 일부를 나열해보겠습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이들 중에서 각각 1개씩을 추첨하여 연결된 주제를 만드는 과정이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 반영된다고 주장하지만, 원본 텍스트에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본에서는 출결 점수가 반영되지 않는다고 했으나, 생성된 응답에서는 반영된다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트의 핵심 내용은 출결 점수가 반영되지 않는다는 것이지만, 생성된 응답은 출결 점수가 반영된다고 설명하고 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 출결 점수가 반영된다고 주장하는 것은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 출결 점수가 반영되지 않는다는 원본의 의미와 정반대의 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.621777217403448</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 &lt;나&gt;군 학생부교과(조기취업형계약학과전형)에서는 출결이 반영됩니다. 출결 점수는 다음과 같이 반영됩니다:
+- 결석일수가 0~2일인 경우: 120점
+- 결석일수가 3~6일인 경우: 90점
+- 결석일수가 7~12일인 경우: 60점
+- 결석일수가 13~20일인 경우: 30점
+- 결석일수가 21일 이상인 경우: 0점
+따라서 출결 점수는 학생부 교과성적 평균 산출에 포함됩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원과 전형에 대한 정보를 정확하게 반영하고 있으며, 연도만 추가되었을 뿐 사실에 대한 왜곡이 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.926506747476267</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 인문사회과학대학 영어영문학과의 다군 일반학생 전형 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 주어진 정보와 상충하는 내용을 포함하고 있습니다. 원문에서는 28명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 제공된 정보와 상반되는 내용을 포함하고 있습니다. 원문은 모집 인원에 대한 명확한 정보를 제공하는 반면, 생성된 응답은 이를 부정하고 다른 학과의 정보를 나열하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보가 부족하며, 주제와 관련 없는 다른 학과의 정보를 나열하고 있습니다. 원문에서 요구하는 정보에 대한 직접적인 답변이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 논리적 흐름이 없습니다. 원문에서 요구하는 정보와는 관련이 적어 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정확한 정보를 왜곡하고 있으며, 모집 인원에 대한 잘못된 해석을 포함하고 있습니다. 원문에서는 28명의 신입생을 선발한다고 명시되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 거의 없으며, 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 주제와 관련 없는 정보를 포함하고 있습니다. 원문에서 요구하는 정보와는 다르게 해석되고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원문과 관련이 없기 때문에 전체적인 이해가 어렵습니다. 주제와 관련된 정보가 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.572098292662892</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 정원 내 모집인원이나 다군 일반 학생 전형으로 모집하는 인원 수가 직접적으로 나와 있지 않습니다. 
+다군 일반학생 전형을 모집하고 있는 단과대학과 모집단위는 다음과 같습니다:
+- 예술디자인체육대학의 체육학과 교직
+- 예술디자인체육대학의 레저스포츠학과 
+- 예술디자인체육대학의 태권도학과 
+- 예술디자인체육대학의 경기지도학과 신설 
+- 예술디자인체육대학의 패션디자인학과 교직
+따라서 인문사회과학대학의 영어영문학과에 대한 다군 일반학생 전형 모집인원은 주어진 정보에서 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 공식 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하거나 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에서 제공된 정보(22명의 신입생 선발)에 대한 내용을 완전히 무시하고 있으며, 잘못된 정보를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 신입생 선발 인원에 대한 명확한 정보를 제공하는 반면, 생성된 응답은 그에 대한 부정확한 주장을 하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.5309726080029048</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 인원에 대한 정보가 없습니다. 다른 단과대학이나 모집단위의 정보만이 포함되어 있습니다. 더 자세한 정보를 얻기 위해서는 공식 홈페이지 (http://ipsi.deu.ac.kr/main.do)를 참조하거나 관련 부서에 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 영어 등급에 따른 점수에 대한 정보를 제공하지 않고, 평균 점수와 표준 편차에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 점수와는 관련이 없으며, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본 텍스트의 점수와 관련된 내용이 전혀 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 수능 영어 등급에 따른 점수에 대한 질문에 대한 적절한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 모두 낮은 점수를 받으며, 원본 텍스트와의 관련성이 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.5971197226944296</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 수능 영어 등급에 따른 평균 점수는 3.88이며, 표준 편차는 0.31입니다.
+이 정보를 바탕으로 수능 영어 등급에 따른 점수를 추정할 수 있습니다. 하지만 정확한 점수를 제공하기 위해서는 해당 등급별로 변환된 점수가 필요합니다. 제공된 데이터에서는 각 등급의 평균과 표준 편차만 주어져 있으므로, 실제 변환점수를 확인하려면 동의대학교의 공식 웹사이트나 관련 문서를 참조해야 합니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 있다고 주장하고 있지만, 이는 원문에서 명확히 부정된 내용입니다. 원문에 따르면 예술고 출신자는 지원할 수 없으므로, 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문에서 예술고 학생은 지원할 수 없다고 명시되어 있는데, 생성된 응답은 그와 반대로 지원 가능하다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 지원 자격 및 제출 서류에 대한 정보를 제공하고 있습니다. 그러나 이 정보가 잘못된 내용에 기반하고 있다는 점에서 주의가 필요합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 신뢰성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 지원 자격과 제출 서류에 대한 정보를 체계적으로 제시하고 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 포함하고 있습니다. 예술고 학생이 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보에 기반한 응답이므로 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어, 의미적으로 적절하지 않습니다. 원문의 맥락을 무시하고 잘못된 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7120964781923824</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 
+- **지원 자격**: 
+  - 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자
+  - 또는 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자
+- **제출 서류**:
+  - 지원자 본인의 가족관계증명서 1부
+  - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+  - 중학교 학교생활기록부 1부
+  - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+  - 기타 필요한 서류
+따라서 예술고 학생도 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 4등급 기록을 220cm 이상으로 잘못 제시하고 있으며, 배점도 300점으로 잘못 기재되어 있습니다. 원본 텍스트의 정보와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 정보의 정확성이 떨어져서 전체적인 품질에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보는 원본 텍스트와 비교했을 때 매우 부정확합니다. 
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 품질 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로 관련이 있지만, 잘못된 정보로 인해 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8808174855651933</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 220cm 이상이며, 이 기록에 대한 배점은 300점입니다.
+이 정보는 레저스포츠학과 기록별 배점표에서 얻을 수 있습니다. 만약 더 자세한 내용이나 다른 항목에 대해 궁금하시다면 추가로 질문해주세요.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 완전히 무시하고 있으며, 잘못된 정보(비율이 포함되어 있지 않다고 주장)를 제공하고 있습니다. 따라서 사실성과 관련하여 심각한 오류가 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 비율을 제공하고 있지만, 생성된 응답은 그 비율이 없다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 출결 반영 비율에 대한 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확성 측면에서 심각한 결함이 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 비율에 대한 정보가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5342668543402672</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 경기지도학과에 대한 특정 출결 반영 비율이 포함되어 있지 않습니다. 다른 전형이나 단과대학, 모집단위와 관련된 출결 반영 방법에 대해 자세히 설명하고 있습니다만, 경기지도학과에 대한 명시적인 정보는 없습니다.
+더 정확한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 자료를 확인하거나, 동의대학교 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원이 없다고 잘못된 정보를 제공하고 있으며, 이는 원본 텍스트와 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 모순되는 내용을 포함하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 관련 웹사이트를 언급하고 있지만, 주된 질문에 대한 답변이 부정확하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 내용의 정확성 부족으로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 원본 텍스트의 사실과 완전히 다르며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 원본 텍스트와 일치하지 않으며, 부적절한 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7891070546277922</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 모집인원이 없습니다. 관련 정보를 확인하시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정과 관련된 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5203324967905575</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 있습니다.
+대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 조회할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 반영하고 있으며, 응용화학과에 대한 구체적인 기준이 명시되어 있지 않다는 점을 언급하고 있습니다. 그러나 "수능 최저기준 정보가 제공된 문서 내에서는 확인할 수 없습니다."라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 학력 기준이 없다는 점을 유지하고 있습니다. 다만, 응용화학과에 대한 정보가 부족하다는 점에서 약간의 일관성 문제를 느낄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련 정보를 찾는 방법까지 안내하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장은 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 중복된 내용이 있어 완전한 일관성에는 다소 부족함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 수능 최저 학력 기준이 없다는 점을 잘 설명하고 있습니다. 그러나 "해당 데이터에서 명시되어 있지 않기 때문입니다."라는 부분은 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 모호함과 중복된 내용이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 가독성이 떨어질 수 있어 완전한 명확성에는 다소 부족함이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5040492811466155</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 응용화학과에 대한 수능 최저기준 정보가 제공된 문서 내에서는 확인할 수 없습니다. 관련 정보를 찾지 못한 이유는 응용화학과라는 특정 학과의 수능 최저기준이 해당 데이터에서 명시되어 있지 않기 때문입니다.
+문서에서 제공된 정보 중에는 수능 최저기준이 없는 전형들이 많이 나와 있지만, 응용화학과에 대한 구체적인 수능 최저기준은 포함되어 있지 않습니다. 
+더 정확한 정보를 얻으려면, https://ipsi. deu. ac. kr/main. do 웹사이트를 방문하여 확인하거나, 동의대학교 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 명시된 학과 목록과 일치하지 않으며, "아동학과"와 "금융경영학과"는 원본에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에 나열된 학과와 생성된 응답의 학과가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 답하고 있지만, 제공된 정보가 사실과 다르기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 내부적으로 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 신설된 학과에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 제공된 정보가 사실과 다르기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.5024478712676909</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "아동학과"와 "금융경영학과"가 있습니다. 
+아동학과는 기존 보육·가정상담학과를 분리하여 새롭게 설립되었고, 금융경영학과는 경제금융보험학과의 명칭을 변경한 것입니다.
+따라서 2024학년도 동의대학교에서 신설된 학과는 "아동학과"와 "금융경영학과"입니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 그에 대한 부정확한 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보가 없다는 주장은 원본의 핵심 내용을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 정보가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 부재로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6495967476923505</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형요소 반영비율에 대한 명확한 데이터가 없습니다. 추가적인 자세한 내용을 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 공식 홈페이지에서 해당 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 수능 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 한의과대학이 포함되어 있으며, 수학 과목도 '확률과 통계'로 잘못 언급되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 특히 한의과대학과 수학 과목의 변경은 원본 텍스트와의 일관성을 해치고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점이 적용되는 학과에 대한 정보를 제공하고 있으나, 원본 텍스트와는 다른 학과를 포함하고 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과를 나열하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 잘못된 정보를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와의 일치성이 낮고, 사실성 및 정확성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7290599084140416</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과들은 주로 특정 전공 분야에서 요구됩니다. 위에 제시된 정보를 바탕으로, 수능 가산점이 적용되는 학과들을 확인해볼까요:
+1. **한의과대학** - 한의예과(수학&lt;확률과통계&gt;)에서 수능 가산점을 적용합니다.
+2. **공과대학** - 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과에서 수능 가산점을 적용합니다.
+3. **ICT융합공과대학** - 컴퓨터공학과와 소프트웨어공학부에서 수능 가산점을 적용합니다.
+이러한 학과들은 일반적으로 과학적, 기술적인 분야를 강조하기 때문에 수능의 수학이나 과학 영역에서 높은 점수를 요구하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 점은 정확하지만, 반영 과목에 대한 구체적인 내용은 원문에 명시되어 있지 않으며, '12과목'이라는 정보는 원문에 포함되어 있지 않습니다. 따라서 일부 사실이 추가되었으나, 원문과의 일치성은 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 반영 과목에 대한 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원문에서는 수능 성적 반영 방법에 대한 구체적인 내용이 없으므로, 생성된 응답의 내용은 원문과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 수능 성적 반영에 대한 질문에 잘 대응하고 있으며, 관련된 정보를 제공합니다. 그러나 원문에서 요구하는 구체적인 반영 방법에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 약간 떨어지는 점이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정확한 정보를 제공하지 않으며, 원문에 없는 추가 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 원문에서 요구하는 구체적인 정보가 부족하여 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7247519998482901</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다.
+- **반영과목**: 전 모집단위(한의예과 제외)에 대해 12과목을 반영합니다. 이는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목입니다.
+- **한의예과**: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목을 반영합니다.
+이와 같이 2024학년도 동의대학교에서는 수능 성적을 중요한 평가 요소로 활용하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.9128408788063518</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 지원 불가능한 모집단위에 대한 정보가 아닌, 검정고시 출신자와 외국고 출신자의 지원 불가능에 대한 내용을 담고 있습니다. 이는 원본 텍스트의 내용과 전혀 관련이 없으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 학과가 제외된다고 명시하고 있지만, 생성된 응답은 전혀 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 특정 학과의 제외에 대한 내용인데, 생성된 응답은 검정고시와 외국고 출신자의 지원 불가능에 대한 내용으로, 주제가 완전히 다릅니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.567086916028073</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 검정고시 출신자와 외국고 출신자가 지원이 불가능합니다. 
+특히, "나군 수능(일반학생전형) 전형요소 반영비율" 항목에서 다음과 같이 언급되어 있습니다:
+- 검정고시: 지원 불가능
+- 외국고: 지원 불가능
+따라서, 2024학년도 동의대학교 나군 수능(일반학생전형)에서는 검정고시 출신자와 외국고 출신자가 지원이 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 모든 전형에서 적용되지 않는다는 점을 추가적으로 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용과 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8018123773402004</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 모든 전형에서 수능 최저기준은 없음을 확인할 수 있습니다. 자세한 내용은 제공된 데이터를 기반으로 한 답변이며, 추가 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8627117809855472</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+위와 같이 학과 분리가 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공하고 있어 사실성을 잘 유지하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일에 대한 정보가 일치합니다. 추가적인 세부사항도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 추가적인 세부사항도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.732591585532875</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷) 마감일은 2024년 1월 6일까지입니다. 자세한 일정은 다음과 같습니다:
+- 원서접수(인터넷): 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+원서접수는 이 기간 내에 완료해야 하며, 마감일은 2024년 1월 6일입니다.
+자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다. [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌, 학과 명칭 변경에 대한 내용을 담고 있습니다. 이는 원본 텍스트의 주제와 완전히 다르며, 전형 요소 변화에 대한 구체적인 내용을 포함하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전형 요소 변화에 대한 질문에 대한 답변으로 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 원본 텍스트와의 관련성, 사실성, 일관성 등 모든 측면에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6577295688569134</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형은 주로 학과 명칭 변경과 관련된 것으로 보입니다. 구체적으로는 다음과 같은 내용들이 있습니다:
+1. **아동학과** - 이전에는 보육·가정상담학과였으나, 2024년도부터 아동학과로 명칭이 변경되었습니다.
+2. **금융경영학과** - 이전에는 경제금융보험학과였으나, 2024년도부터 금융경영학과로 명칭이 변경되었습니다.
+3. **경영정보학과, e비즈니스학과** - 이전에는 정보경영학부(경영정보학, e비즈니스학)였으나, 2024년도부터 각각 경영정보학과와 e비즈니스학과로 명칭이 변경되었습니다.
+4. **부동산자산경영학부(부동산투자학, 부동산개발경영학)** - 이전에는 부동산금융·자산경영학과였으나, 2024년도부터 부동산자산경영학부로 명칭이 변경되었습니다.
+5. **기계공학과, 로봇자동화공학과, 자동차공학과** - 이전에는 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학)였으나, 2024년도부터 각각 기계공학과, 로봇자동화공학과, 자동차공학과로 명칭이 변경되었습니다.
+6. **신소재공학과, 고분자나노공학과** - 이전에는 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학)였으나, 2024년도부터 각각 신소재공학과와 고분자나노공학과로 명칭이 변경되었습니다.
+7. **건축학과(5년제), 건축공학과, 토목공학과, 도시공학과** - 이전에는 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학)였으나, 2024년도부터 각각 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과로 명칭이 변경되었습니다.
+8. **화학공학과, 환경공학과, 응용화학과** - 이전에는 화학환경공학부(화학공학, 환경공학, 응용화학)였으나, 2024년도부터 각각 화학공학과, 환경공학과, 응용화학과로 명칭이 변경되었습니다.
+위와 같은 학과 명칭의 변경은 주요한 변화이며, 이에 따라 전형 요소가 일부 영향을 받을 수 있습니다. 그러나 위에서 언급된 내용 외에는 2024년도 동의대학교의 전형 요소에 대한 큰 변화는 보이지 않습니다. 더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 완전히 잘못 전달하고 있습니다. 응답에서는 실기 비중이 0%라고 주장하며, 레저스포츠학과와 태권도학과의 경우 각각 35%라고 언급하고 있지만, 이는 원본 텍스트와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서는 실기 비중이 70%라고 명시되어 있는데, 생성된 응답에서는 0%라고 주장하고 있습니다. 이는 명백한 모순입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 실기 비중에 대한 잘못된 해석이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로 어느 정도 일관성을 유지하고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 실기 비중에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6321235287106712</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 실기는 반영되지 않습니다. 즉, 실기 비중은 0%입니다.
+레저스포츠학과와 태권도학과의 경우 실기가 반영되며, 그 비중은 각각 35%입니다. 
+따라서 전체적으로 보면, 가군 실기/실적 전형에서 실기 비중은 레저스포츠학과와 태권도학과를 포함한 경우에만 35%가 됩니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 전공의 이름이 올바르게 기재되어 있습니다. 그러나 "미래융합대학의 하위 학부"라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 전공 목록과 일치하지만, "미래융합대학의 하위 학부"라는 정보는 원본 텍스트에 없으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우며, 약간의 개선이 필요할 수 있지만 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록이 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공의 이름은 정확하지만, 추가된 정보가 원본 텍스트에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등에서 좋은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 전공 목록이 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8112934173482648</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과인 '라이프융합학부'는 세 가지 전공을 포함하고 있습니다. 
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이 세 가지 전공은 인문사회 계열에 속하며, 미래융합대학의 하위 학부로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 '태권도학과'가 언급되었으나, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 원본 텍스트와 생성된 응답 간에 학과 목록이 일치하지 않으며, '체육학과'가 누락되었습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여하는 학과에 대한 정보를 제공하고 있으나, 잘못된 정보가 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 '태권도학과'의 잘못된 언급이 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 완전한 일관성을 잃었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.7119359571360627</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사는 다음과 같은 학과에서 진행됩니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과에서는 실기고사가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에 명시된 학과(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)와는 전혀 다른 학과(디지털콘텐츠학과, 영화학과)를 언급하고 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트에서 언급된 학과와 생성된 응답에서 언급된 학과가 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 요구하는 특정 학과에 대한 정보와는 관련이 없습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 맞지 않는 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5532856846963363</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 대해 제한적으로 운영됩니다. 제공된 정보를 바탕으로, 경기실적우수자전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 디지털콘텐츠학과
+2. 영화학과
+그 외의 학과에서는 실기/실적 위주 전형인 '경기실적우수자전형'이 운영되지 않습니다.
+따라서, 실기/실적 위주 전형을 지원하려는 경우, 위에서 언급된 두 학과 중 하나를 선택해야 합니다. 만약 다른 학과에 대한 정보가 필요하다면, 제공된 데이터를 확인하거나 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록이 일치합니다. 또한, 학부가 신설된 학부라는 정보도 정확하게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 전공 목록과 학부의 신설 여부가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 전공 제공에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 각 전공이 나열된 방식도 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.777708021403861</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 정보는 주요 변경사항에서 확인할 수 있으며, 2024년도에 신설된 학부입니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시된 원문과 상반된 내용을 담고 있습니다. 원문에서는 지원 가능성을 언급하고 있지만, 생성된 응답에서는 지원할 수 없다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서 지원 가능성을 명확히 하고 있는 반면, 생성된 응답은 이를 부정하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 원문에서 제공하는 정보와는 다르게 해석되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문에서는 지원 가능성을 언급하고 있지만, 생성된 응답은 이를 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 원문과의 불일치로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6091717823538726</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，根据提供的信息，你不能通过东义大学的一般学生招生类型进行申请。一般学生招生类型（가군）支持所有类型的高中毕业生申请，包括普通高中、自主高中、特教高中（科学高中、国际高中、外语高中）、艺术高中、体育高中、技术高中（职业型/替代型）、英才学校和其他认可的高中毕业生（学力认定高中、广播通信高中、各种学校）、成人高考和外国高中毕业生。
+但是，你不能通过一般学生招生类型申请。你需要查看东义大学是否有适合特殊高中的招生类型或特定的招生计划。建议访问东义大学官网 https://ipsi. deu.ac.kr/main.do 获取最新信息或直接联系学校招生办公室确认具体要求。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집되는 학과로 언급되었으나, 생성된 응답에서는 디지털콘텐츠학과와 게임공학과가 언급되고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 정보와 생성된 응답의 정보가 서로 상충하며, 서로 다른 학과를 언급하고 있어 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 정보인 모집 학과에 대한 정확한 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되어 있지만, 주제와 관련된 정보가 잘못되어 있어 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 크기 때문에 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 그러나 일부 내용은 관련이 있을 수 있으나, 전반적으로 부적절한 정보가 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5023022537957414</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보면, 디지털콘텐츠학과와 ICT융합공과대학의 게임공학과가 각각 모집 인원이 5명으로 동일한 수치입니다. 그러나 지원 인원을 고려할 때 경쟁률이 가장 높은 학과는 게임공학과로 보입니다 (경쟁률: 5.33). 따라서, 지원 인원과 경쟁률을 모두 고려하면 게임공학과가 가장 많이 모집되는 학과라고 볼 수 있습니다.
+하지만, 디지털콘텐츠학과도 많은 지원이 있었고, 경쟁률이 높은 학과 중 하나입니다 (경쟁률: 4.40). 따라서, 두 학과 모두 중요한 대상으로 여겨질 수 있습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 잘못 설명하고 있습니다. 원문에서는 "마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다"고 명시되어 있지만, 생성된 응답은 "특수교육 고등학교 학생은 지원할 수 없다"는 내용을 포함하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 특정 학교 출신자에 대한 지원 불가능성을 명확히 하고 있지만, 생성된 응답은 그 내용을 왜곡하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원문에서 제공하는 정보와는 관련이 적습니다. 질문자는 동의대에 대한 정보를 요청했으나, 생성된 응답은 다른 내용을 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 질문한 사용자에게 중국어로 응답한 점은 유창성 측면에서 다소 부적절합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 질문에 대한 명확한 답변이 부족하여 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 다르게 해석하고 있으며, 지원 자격에 대한 정보가 부정확합니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족함을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 질문자의 의도를 잘 반영하지 못하고 있습니다. 이는 의미적 적절성 점수를 낮추는 요소입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기에는 무리가 없지만, 질문에 대한 명확한 답변이 부족하여 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5208571804836971</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？如果是的话，请用韩语提问。你提到自己是特殊教育高中学生，想了解是否可以申请동국대학교의 학생부교과 농어촌학생전형。根据提供的信息，特殊教育高中的学生在该招生类别下的支持资格如下：
+```
+"특수목적고": "지원 불가능"
+```
+因此，特殊教育高中学生不能申请东国大学的学生部教科农·渔村学生类型。
+如果你有其他问题或需要进一步的帮助，请告诉我。更多信息可以参考“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다. 두 텍스트 모두 평균 성적에 대한 정보가 없음을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다. 정보의 부재를 명확히 하고 관련 링크를 제시하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.8213476067852797</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 제공된 정보로는 확인할 수 없습니다. 해당 정보가 포함되어 있지 않아서입니다. 다른 관련 정보를 찾거나, 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부에 대한 데이터가 없다는 점을 언급하고 있으며, 원본 텍스트의 핵심 사실을 반영하고 있습니다. 그러나 "다른 전공이나 단과대학의 정보만이 포함되어 있습니다"라는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, "다른 전공이나 단과대학의 정보만이 포함되어 있습니다"라는 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 요청된 정보에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "제공된 정보에는"이라는 문장 시작 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있지만, 추가된 정보가 원본에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않으므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 문구가 약간 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.6800814219739175</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 전공이나 단과대학의 정보만이 포함되어 있습니다. 더 자세한 정보를 원하신다면, 관련 웹사이트(https://ipsi. deu. ac. kr/main. do)에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정과 충원 합격자 등록 일정이 추가되어 있어 원본 텍스트와 다소 차이가 있습니다. 원본 텍스트에는 이러한 세부사항이 포함되어 있지 않으므로, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용으로 인해 일관성이 떨어집니다. 특히, 최초 합격자 등록 일정과 충원 합격자 등록 일정이 원본에 없기 때문에 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으며, 관련된 세부사항도 포함되어 있습니다. 그러나 원본 텍스트와 비교할 때 일부 추가 정보가 포함되어 있어 완전한 관련성은 아니므로 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 일관성은 없으므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 포함하고 있지만, 추가된 정보로 인해 정확성이 떨어집니다. 원본 텍스트에 없는 정보가 포함되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 일부 의미가 변형될 수 있습니다. 따라서 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.7984968694810453</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**
+   - **일정**: 2024년 2월 2일 (금) 14:00
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+2. **최초 합격자 등록**
+   - **일정**: 2024년 2월 7일 (수) ~ 13일 (화)
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+3. **충원 합격자 발표 및 등록**
+   - **1차 출시 합격자 발표**: 2024년 2월 14일 (수) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **1차 출시 합격자 등록**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **2차 출시 합격자 발표**: 2024년 2월 15일 (목) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **2차 출시 합격자 등록**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **3차 출시 이후 합격자 발표 및 등록**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정이 2024년 1월 20일로 명시된 원문과 상충하여 2024년 2월 15일로 잘못된 정보를 제공합니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공하므로 일관성이 없습니다. 원문에서 제시된 날짜와 내용이 서로 다릅니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 정보를 제공하지만, 원문에서 언급된 특정 전형에 대한 정보가 누락되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기 쉬운 문장으로 작성되었습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 날짜와 정보를 왜곡하여 잘못된 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 정보를 제공하지만, 원문과의 의미적 일치가 부족하여 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.5207164797915735</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)에 면접이 진행됩니다. 자세한 일정은 다음과 같습니다:
+- 대기실 입실
+- 신분 확인
+- 고사장 앞 이동
+- 고사장 입실
+- 지원동기 및 학업계획 발표
+- 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+- 기타 질의응답(제출서류 진위 여부 등)
+- 퇴실
+면접은 2024년 2월 15일(목) 오후 7시부터 시작되며, 2024년 2월 20일(화)까지 진행될 예정입니다. 자세한 일정과 준비사항은 공지된 내용을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 "한의예과의 최저학력기준을 찾을 수 없다"라고 언급하고 있지만, 원문에서는 "최저학력 기준이 없다"라고 명확히 언급하고 있습니다. 따라서, 응답은 원문과 일치하지 않으며, 다소 모호한 표현이 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분도 있지만, "다른 전형 유형이나 과정에 대한 최저학력기준이 없거나"라는 문구는 원문에서 언급되지 않은 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 있으며, 최저학력 기준에 대한 정보를 찾는 것과 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결이 다소 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 정확히 일치하지 않으며, "최저학력기준이 없다"라는 명확한 사실을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 일부 표현이 원문과의 의미적 일치를 완벽하게 이루지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문구가 다소 모호하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.6126174205072821</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력기준을 찾을 수 없습니다. 다른 전형 유형이나 과정에 대한 최저학력기준이 없거나, 특정한 전형 유형에 대해서만 언급되어 있는 것 같습니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 공식 문서나 안내사항을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "대부분의 전형에서"라는 표현은 다소 모호할 수 있으며, 특정 전형에 대한 예외를 언급하고 있어 약간의 불확실성을 포함하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 응답은 원문과 일관되며, 수능 최저학력 기준이 없다는 점을 강조하고 있습니다. 다만, 특정 전형에 대한 예외를 언급하면서 약간의 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련이 있으며, 수능 최저학력 기준에 대한 정보를 충분히 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 잘 작성되었으나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 그러나 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 연결되어 있습니다. 다만, 일부 문장이 복잡하여 이해하기 어려울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준에 대한 정확한 정보를 제공하고 있습니다. 그러나 "대부분의 전형에서"라는 표현은 다소 모호할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 약간의 모호함이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문과 의미적으로 잘 일치하며, 수능 최저학력 기준에 대한 적절한 정보를 제공합니다. 다만, 일부 표현이 다소 복잡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길고 복잡하여 약간의 혼란을 줄 수 있습니다. 그러나 전체적으로 명확한 정보 전달이 이루어졌습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5478958436885332</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 정시에서는 대부분의 전형에서 수능 최저학력 기준이 없습니다. 
+특히, "가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외)", "나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외) 한의예과(수학(미적분/기하),수학(확률과 통계))", "다군 수능(일반학생전형) 전 모집단위" 등은 모두 수능 최저학력 기준이 없음을 나타내고 있습니다.
+따라서, 정시에서 수능 최저학력 기준을 확인하려면 각 전형별로 상세히 확인해야 합니다. 필요하다면 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정은 정확하게 반영하고 있지만, 1차 및 2차 충원합격자 등록 일정은 원본 텍스트에 포함되어 있지 않은 정보입니다. 따라서 일부 사실이 추가되었으나, 원본의 핵심 정보는 유지되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하지만, 등록 일정이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 등록 일정이 포함되어 있지 않기 때문에, 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 충원합격자 발표 일정과 관련된 정보를 잘 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 등록 일정이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 제공하지만, 등록 일정이 원본 텍스트에 포함되어 있지 않기 때문에 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 등록 일정으로 인해 약간의 의미적 불일치가 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.9446911787010022</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+- **1차 충원 합격자 등록**: 2024년 2월 14일(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+- **2차 충원 합격자 등록**: 2024년 2월 15일(목) 09:00~16:00
+이후에는 3차 이후의 충원합격자는 개별 전화 통보를 통해 발표되며, 이 일정은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 구체적인 날짜와 시간을 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 구체적인 발표 일정을 제시하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 무시하고 있으며, 잘못된 정보를 제공하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3973186466734837</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가합격자의 발표 일정에 대한 명확한 정보가 없습니다. 추가합격자 발표일은 일반적으로 대학마다 다르게 결정되며, 이와 관련된 자세한 내용은 해당 대학의 공식 웹사이트를 참조하시거나, 입학처에 문의하시는 것이 가장 정확할 것입니다.
+https://ipsi.deu.ac.kr/main.do 에서 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가 모집에 대한 명확한 내용을 확인할 수 없다고 언급하고 있지만, 원본 텍스트에서는 추가 모집이 이루어진다고 명시하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 추가 모집에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트와 상충하는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 추가 모집에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 추가 모집에 대한 웹사이트 링크를 제시하여 유용한 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 내용을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 추가 모집이 이루어진다는 사실을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 잘 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5225023331991786</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가 모집에 대한 명확한 내용은 확인되지 않았습니다. 특정 단과대학이나 계열의 추가 모집 가능 인원은 제시되었지만, 일반적인 추가 모집 여부는 명시되어 있지 않습니다.
+추가 모집에 대한 자세한 정보를 원하신다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나, 대학 입학처와 직접 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보의 일부를 포함하고 있지만, 원본 텍스트의 주요 세부사항과 정확한 요건을 잘못 해석하거나 누락했습니다. 예를 들어, 산업체 적용 범위와 재직 기간에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 제공된 지원 자격과 제출 서류에 대한 정보가 누락되거나 잘못된 방식으로 설명되었습니다. 예를 들어, 산업체 적용 범위와 재직 기간에 대한 내용은 원본 텍스트와 상충합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 관련성이 떨어집니다. 원본 텍스트의 구체적인 세부사항이 누락되어 있어, 전반적인 관련성은 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어, 더 간결하게 표현될 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 약해 논리적인 일관성이 떨어집니다. 특히, 원본 텍스트의 구조와 다르게 정보가 배열되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 지원 자격과 제출 서류에 대한 정보가 잘못되었거나 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 관련성 또한 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 의미를 전달하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 산업체 적용 범위와 재직 기간에 대한 내용은 원본 텍스트와 관련이 없습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 내용이 원본 텍스트와 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.7030960064320261</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 한 입학 전형입니다. 이 전형에서는 고등학교 졸업 자격이 있는 사람, 검정고시를 통과한 사람, 외국 고등학교를 졸업한 사람 등을 포함합니다. 지원 자격과 서류 제출 요건은 다음과 같습니다:
+1. **산업체 적용 범위**: 국가나 지방자치단체, 공공 단체의 직원이거나 근로기준법에 따라 상시 근로자 5인 이상 사업체에서 근무한 사람, 4대 보험 중 하나 이상 가입된 사업체에서 근무한 사람입니다. 1차 산업 종사자는 국가 또는 지방자치단체가 발급하는 공적 증명서를 통해 인정받을 수 있습니다.
+2. **재직기간**: 2024년 3월 1일 기준으로 총 재직 기간이 3년 이상이어야 합니다. 이는 지원 자격 증빙 서류로 확인되는 기간에 한합니다. 중복된 기간은 이중으로 합산되지 않습니다.
+3. **서류 제출**: 고교 졸업(예정)자, 검정고시 출신자, 외국 고등학교 졸업(예정)자는 각각의 서류를 제출해야 합니다. 특히 외국 고등학교 졸업자는 공증받은 증명서와 성적증명서를 함께 제출해야 하며, 이는 해당 국가의 정부 기관으로부터 아포스티유 확인서 또는 한국 영사관에서 발급받아야 합니다.
+4. **전형 요소 반영 비율**: 서류 평가에서는 70%의 비중을 차지하고 면접은 30%의 비중을 차지합니다. 이는 학업 역량과 전공 적합성에 중점을 둔 평가를 의미합니다.
+5. **면접**: 개별 면접으로 진행되며, 시간은 10분 이내입니다. 입학사정관 2인이 평가위원이 되어 수험생을 대상으로 정성적이고 종합적인 평가를 합니다. 블라인드 면접 방식으로 개인 신상 정보 노출을 금지하며, 교복 착용도 금지됩니다.
+6. **평가 영역 및 배점**: 학업 역량과 전공 적합성에 대한 평가는 각각 180점과 120점의 최고 점수를 받을 수 있습니다. 이는 지원자의 학업 역량과 전공 적합성을 종합적으로 평가하기 위한 것입니다.
+이러한 요건들을 충족시키면 평생학습자전형에 지원할 수 있습니다. 자세한 내용은 입학처 웹사이트를 참조하시거나 문의해보시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자라는 두 가지 조건만 제시되었으나, 생성된 응답은 전혀 다른 조건들을 나열하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 조건들을 제시하고 있어 일관성이 없습니다. 원본의 내용과 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본에서 요구하는 지원자격과는 전혀 다른 조건들이 나열되어 있어 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조건을 나열하고 있지만, 이들 간의 논리적 연결이 부족합니다. 각 조건이 독립적으로 나열되어 있어 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본과 다르기 때문에 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6309228961403244</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 국가 또는 지방자치단체 및 공공단체 소속 직원이거나,
+2. 근로기준법 제11조에 따라 상시근로자 5인(사업주 포함) 이상 사업체에서 근무하는 사람, 
+3. 4대 보험 중 하나 이상 가입된 사업체에서 근무하는 사람 (창업자 또는 자영업자도 포함),
+4. 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)인 사람,
+5. 군 의무복무 경력도 재직기간으로 인정됩니다.
+단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가 또는 지방자치단체가 발급하는 공적증명서를 통해 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 날짜와 시간에 대한 정보는 누락되었습니다. 그러나, 시험장소에 대한 일반적인 설명은 포함되어 있어 일부 사실성을 유지하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 실기고사 대기실 및 입실시간에 대한 구체적인 정보가 없기 때문에 일관성이 떨어집니다. 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하고 있으며, 추가적인 정보 요청에 대한 안내도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 누락되어 있습니다. 그러나 일반적인 정보는 정확하게 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 일부는 긍정적이지만 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 실기고사에 대한 일반적인 정보를 제공합니다. 그러나 구체적인 정보가 부족하여 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3888407441072794</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 실기고사와 관련된 구체적인 장소에 대한 언급은 없습니다. 따라서, 정확한 장소를 알려드리기는 어렵습니다. 
+실제 시험장소는 각 대학이 공지하는 정보에 따라 결정되며, 일반적으로 해당 대학의 시험장에서 실시됩니다. 만약 더 자세한 정보가 필요하다면, 해당 대학의 입학처 웹사이트나 연락처를 통해 확인하시기 바랍니다.
+더 궁금하신 점이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보세요. 이 사이트에서는 다양한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않으며, 구체적인 장소에 대한 언급이 없다고 말하고 있습니다. 그러나 원본 텍스트는 대기실 및 입실시간에 대한 정보를 포함하고 있으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 대기실 및 입실시간에 대한 정보가 없다고 주장합니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 답변하고 있으며, 관련된 웹사이트를 제안하고 있습니다. 그러나 원본 텍스트의 구체적인 정보를 반영하지 못해 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 정보가 잘 구성되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 대기실 및 입실시간에 대한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변을 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 정보를 반영하지 못해 약간의 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3517481635678021</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 체육학과의 실기고사에 대한 구체적인 장소는 언급되어 있지 않습니다. 따라서, 정확한 장소를 알 수 없으므로 "https://ipsi. deu. ac. kr/main. do" 웹사이트로 접속하여 확인해 보시거나, 대학 입학관리팀에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3차 이후에만 개별 전화 통보가 이루어진다는 사실을 언급하고 있지만, 원문에서 명시된 "전화로 개별 연락을 하지 않는다"는 부분을 완전히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 전화 통보에 대한 내용이 모순적으로 제시되어 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시되어 있으나, 생성된 응답에서는 3차 이후에 전화 통보가 이루어진다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원 합격자 발표와 관련된 정보를 제공하고 있으며, 원문과 관련된 내용을 다루고 있습니다. 그러나 추가된 정보(등록금 납부 일정 등)는 원문에서 다루지 않은 내용이므로 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서의 중요한 사실(전화 통보가 이루어지지 않음)을 잘못 전달하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성과 일관성에서 부족함이 있습니다. 그러나 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 전화 통보에 대한 정보가 모순되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6138083300939294</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원 합격자 발표 후에는 3차 이후의 경우 개별 전화 통보 방식으로 안내를 드립니다. 이때 합격자 발표 및 등록금 납부 일정이 공지되며, 학교 지정은행에서 등록금을 납부해야 합니다.
+만약 자세한 내용이 궁금하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 페이지를 참조해보시거나, 입학관리팀에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있습니다. 그러나 원본 텍스트가 한국어로 작성된 반면, 생성된 응답은 중국어로 되어 있어 언어적 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제를 다루고 있지만, 언어가 다르기 때문에 일관성에 약간의 문제가 있습니다. 원본 텍스트의 내용과 일치하지만, 언어적 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 있으며, 수시모집 결과에 대한 정보가 없다는 점을 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 중국어로 잘 작성되어 있으며, 문법적으로도 문제가 없습니다. 그러나 한국어 원본과의 비교에서 언어적 유창성은 다소 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 언어적 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정보의 정확성은 높습니다. 그러나 언어적 차이로 인해 정확성의 평가가 다소 복잡해질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 높은 품질을 보여주지만, 언어적 일관성과 관련하여 약간의 문제가 있습니다. 전반적으로는 양호한 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미를 잘 전달하고 있으며, 적절한 맥락에서 작성되었습니다. 그러나 언어적 차이로 인해 의미 전달의 적절성이 다소 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 중국어로 잘 이해할 수 있도록 작성되어 있으며, 명확하게 전달됩니다. 그러나 한국어 원본과의 비교에서 이해 가능성이 다소 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7190402421810961</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到2023学年的警政学部（경찰행정학과）的招生结果。如果您需要了解这方面的详细信息，建议访问以下网站以获取最新和准确的数据：“https://ipsi. deu. ac. kr/main. do”。该网站通常会提供最新的招生信息和统计数据。</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. "학생부교과(농어촌학생전형)"와 같은 전형에서는 수능 응시 여부에 관계없이 지원 가능하다고 주장하지만, 이는 원문과 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공하고 있습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있으나, 생성된 응답은 수능을 응시하지 않아도 지원 가능한 전형이 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 잘못된 정보를 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉬운 편입니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5535667169930486</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시 모집에서 수능을 응시하지 않아도 지원 가능한 전형이 있습니다. 예를 들어, "학생부교과(농어촌학생전형)"와 같은 전형에서는 수능 응시 여부에 관계없이 지원 가능합니다.
+하지만 모든 전형이 수능 응시 없이 지원할 수 있는 것은 아닙니다. 특정 전형은 수능 점수를 반영하여 평가하기 때문에, 수능을 응시하지 않으면 해당 전형에서의 경쟁력을 높이기 어려울 수 있습니다.
+따라서 정확한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나, 대학 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 언급하고 있지만, 특정 학과에 따라 자격이 다를 수 있다는 점을 강조하고 있습니다. 이는 원문에서 명시된 내용과는 다소 차이가 있으며, 원문에서 제공하는 정보의 구체성을 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 특정 학과에 따라 자격이 다를 수 있다는 추가 정보를 제공하여 원문과의 일관성이 떨어집니다. 원문은 모든 고등학교 졸업생이 정시 지원이 가능하다고 명확히 언급하고 있으나, 생성된 응답은 조건을 추가하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문에서 강조한 "정시 지원 가능성"에 대한 직접적인 답변보다는 추가적인 정보에 초점을 맞추고 있습니다. 따라서 관련성은 높지만, 원문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 떨어져 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 점을 언급하지만, 특정 학과에 따라 자격이 다를 수 있다는 점은 원문에서 명시된 사실과 다소 상충합니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성은 높지만 원문에 대한 직접적인 답변이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하고 있지만, 특정 학과에 따라 자격이 다를 수 있다는 점에서 원문의 의미와 다소 차이가 있습니다. 그러나 전반적으로 의미는 적절하게 전달되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5858632876951113</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 정시 모집에 지원할 수 있는 자격은 특정 학과에 따라 다르므로, 정확한 답변을 위해서는 해당 대학의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 입학처와 직접 문의해보시는 것이 좋습니다.
+일반적으로 고등학교 졸업 후 10년이 지났다면, 정시 모집에 지원하기 위해서는 해당 학과가 요구하는 전형을 충족해야 합니다. 예를 들어, 일부 학과에서는 재직자나 성인학습자를 위한 특별한 전형이 있을 수 있으며, 이러한 전형의 자격 요건을 만족해야 합니다.
+따라서, 정확한 지원 가능 여부와 자격 요건은 해당 대학 입학처에서 확인하시거나 공식 웹사이트를 참조해보시는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.822558991020176</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024. 01. 02.)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)** (2024. 01. 03. ~ 2024. 01. 06.)
+   - 마감일은 18시까지입니다.
+   - 접수사이트: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출** (2024. 01. 03. ~ 2024. 01. 12.)
+   - 마감일은 17시까지 도착해야 합니다.
+   - 서류 제출 대상: (Ⅳ. 전형별 세부 안내 참조)
+     - 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출
+     - 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과, 태권도학과** (2024. 01. 16.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능합니다.
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과** (2024. 01. 17.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능합니다.
+6. **합격자 발표 및 등록금 납부** (최초 합격자 발표)
+   - &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+   - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+7. **합격자 발표 및 등록금 납부** (최초 합격자 등록)
+   - 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+8. **합격자 발표 및 등록금 납부** (충원 합격자 1차 발표)
+   - 2024. 02. 14.(수) 09:00
+9. **합격자 발표 및 등록금 납부** (충원 합격자 1차 등록)
+   - 2024. 02. 14.(수) 09:00 ~ 16:00
+10. **합격자 발표 및 등록금 납부** (충원 합격자 2차 발표)
+    - 2024. 02. 15.(목) 09:00
+11. **합격자 발표 및 등록금 납부** (충원 합격자 2차 등록)
+    - 2024. 02. 15.(목) 09:00 ~ 16:00
+12. **합격자 발표 및 등록금 납부** (충원 합격자 3차 이후 발표)
+    - 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+    - 개별 전화 통보 시 안내
+이 일정은 동의대학교 정시 모집에 대한 일반적인 일정이며, 각 단과대학 및 모집단위 별로 세부 내용이 다를 수 있으므로 공식 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 일정과 세부사항은 대체로 정확하지만, 원서접수 마감 시간에 대한 구체적인 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되며, 주요 일정과 세부사항이 잘 반영되어 있습니다. 다만, 일부 표현이 다르게 서술되어 있어 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 항목 간의 연결이 조금 더 매끄러울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 제공된 정보는 대체로 정확하지만, 원본 텍스트의 세부사항 중 일부가 생략되거나 다르게 표현되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞아떨어집니다. 그러나 일부 표현에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확합니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.930614132993997</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 원서를 접수합니다. 마감 시간은 각각의 모집단위에 따라 다릅니다.
+3. **서류 제출**: 2024년 1월 3일(수)부터 12일(금)까지 서류를 제출할 수 있습니다. 서류 제출 방법은 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 보내는 방식입니다.
+4. **실기고사 (가군)**: 레저스포츠학과와 태권도학과에서는 2024년 1월 16일(화)에 실기고사를 치릅니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 오후 2시 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **실기고사 (나군)**: 디자인조형학과와 체육학과에서는 2024년 1월 17일(수)에 실기고사를 치릅니다. 대기실 및 입실시간 안내는 마찬가지로 2024년 1월 12일(금) 오후 2시 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지 (은행마감시간 내)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일(수) 오전 9시
+     - 2차: 2024년 2월 15일(목) 오전 9시
+   - 충원 합격자 발표 및 등록이 완료되지 않은 경우, 개별 전화 통보를 통해 추가적으로 합격자를 발표하고 등록합니다.
+위와 같은 일정을 따르며, 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 명확히 반영하지 않고 있습니다. 수능 미응시자가 지원 가능한 전형에 대한 정보는 잘못된 정보로, 이는 원본 텍스트와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 수능 미응시자의 지원 불가능성을 무시하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 수능 미응시자의 지원 가능성에 대한 잘못된 정보가 포함되어 있어 논리적 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 왜곡하고 있으며, 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있으며, 전반적으로 원본 텍스트와의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 수능 미응시자의 지원 가능성에 대한 잘못된 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6326586418909617</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 주로 실기/실적 기반의 전형으로 보입니다. 특히, 레저스포츠학과와 태권도학과는 실기 성적이 합격 요건 중 하나이므로 수능 미응시자도 지원 가능합니다.
+레저스포츠학과와 태권도학과의 경우, 모집 단위별로 실기 종목과 그에 따른 배점이 정해져 있으며, 해당 실기를 수행하는 것이 합격 요건 중 하나입니다. 따라서 수능 미응시자라도 실기 성적이 충분히 높다면 지원 가능합니다.
+추가적으로, 나군 학생부종합 전형에서도 특정 조건을 만족하면 수능 미응시자도 지원이 가능하므로, 해당 전형의 자세한 내용을 확인해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 구체적인 숫자(36명)를 언급하지 않고, 후보순위에 대한 데이터가 없다고만 언급하고 있습니다. 이는 원문에서 제공된 중요한 정보를 누락한 것으로, 사실성 점수를 낮춥니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 후보순위에 대한 언급은 원문에 없는 정보입니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 정보를 제공하고 있으며, 추가적인 문의 방법을 제시하고 있습니다. 그러나 원문에서 제공된 구체적인 정보가 누락되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 구체적인 사실(36명)을 누락하고 있으며, 이로 인해 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 중간 정도의 품질을 보입니다. 정보의 누락과 일관성 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 대체로 일치하지만, 구체적인 정보가 누락되어 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원문과의 연결이 약간 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.626741243298535</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 전년도 전자공학과의 충원 합격 후보순위에 대한 데이터가 없습니다. 이와 관련된 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 대학 입학처에 직접 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 전화번호가 없다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 웹사이트 링크를 언급하고 있지만, 전화번호에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 약해 일관성이 떨어집니다. 전화번호에 대한 잘못된 정보로 인해 논리적 흐름이 깨졌습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전화번호에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.708571250712141</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 추가 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요. 해당 페이지에서 연락처 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우 해당 합격자가 처리되지 않는다고 언급하고 있지만, 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명확히 설명하고 있습니다. 따라서 사실관계에서 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 다시 입학전형 과정을 거쳐야 한다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문에서 다루고 있는 전화 통화와 관련된 절차에 대해 설명하고 있으나, 원문에서 강조하는 등록 포기자 처리에 대한 내용이 누락되어 있습니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 원문에서의 핵심 메시지와의 연관성이 약해 보입니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 사실관계, 일관성, 정확성에서 큰 문제를 가지고 있어 전반적인 품질이 낮습니다. 관련성은 어느 정도 있지만, 다른 차원에서의 문제로 인해 전체 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과 일치하지 않는 부분이 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 차이로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5611925181638594</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 해당 합격자는 처리되지 않습니다. 다시 입학전형 과정을 거쳐야 하며, 이때는 일반적으로 홈페이지를 통해 개별 조회가 이루어집니다.
+따라서 전화 통화가 되지 않으면 다음과 같은 절차로 진행됩니다:
+1. 홈페이지에서 개별 조회를 통해 합격 여부를 확인합니다.
+2. 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+3. 등록장소는 학교 지정은행으로, 등록금 고지서에 기재된 정보를 따라야 합니다.
+이런 절차로 인해 전화 통화가 되지 않더라도 합격 여부와 관련된 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록과 조건을 정확하게 나열하고 있습니다. 그러나 "유형에 따라 다르게 요구됩니다"라는 문구는 원본 텍스트에서 명시된 내용과는 약간의 차이가 있어, 완전한 일치를 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 그러나 "유형에 따라 다르게 요구됩니다"라는 표현이 원본의 내용을 약간 왜곡할 수 있어, 완전한 일관성을 보장하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트에 직접적으로 관련되어 있으며, 필요한 서류에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 나열되어 있습니다. 그러나 일부 문장 간의 연결이 조금 더 매끄러울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 "유형에 따라 다르게 요구됩니다"라는 문구는 원본의 세부 사항을 완전히 반영하지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 원본 텍스트와 잘 일치합니다. 그러나 일부 세부 사항에서 약간의 차이가 있어 완전한 일치를 보장하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 "유형에 따라 다르게 요구됩니다"라는 표현이 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉽습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.751790090305873</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 제출해야하는 서류는 유형에 따라 다르게 요구됩니다. 
+**6년 과정**
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자) 
+5. 부모가 사망하거나 이혼한 경우에는 추가로 제출해야하는 서류:
+   - 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)
+6. 부모가 이혼한 경우에는 추가로 제출해야하는 서류:
+   - 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부
+   - 본인의 기본증명서(상세) 1부
+**12년 과정**
+1. 지원자 본인의 주민등록초본 1부 
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자) 
+위와 같은 서류들을 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 필요한 서류에 대한 정보가 대부분 정확합니다. 그러나 "주소변동사항이 포함된 서류를 발급받아 제출해야 합니다"라는 부분이 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류 목록을 제시하고 있습니다. 다만, 추가 서류에 대한 설명이 부족하여 약간의 일관성 문제가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가 서류에 대한 설명이 부족하여 완전한 일관성에는 다소 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항의 누락으로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 세부사항이 누락되어 있어 의미 전달에 약간의 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 일부 표현이 다소 어색할 수 있어 완전한 이해에는 다소 부족할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8482216007715353</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다.
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류를 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 언급하고 있으며, 이는 원본 텍스트와 일치합니다. 그러나 "2024 나군 정시 모집에 대한 정보는 제공된 자료에서 확인할 수 없습니다."라는 문장은 원본 텍스트의 내용과 직접적으로 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, "2024 나군 정시 모집에 대한 정보는 제공된 자료에서 확인할 수 없습니다."라는 문장은 원본 텍스트와의 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 기회균등 전형에 대한 질문에 대한 답변을 포함하고 있으며, 관련된 정보를 제공합니다. 그러나 나군 정시 모집에 대한 정보는 원본 텍스트의 주제와 직접적으로 관련이 없으므로 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 일부 문장이 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 나군 정시 모집에 대한 정보는 원본 텍스트의 주제와는 관련이 없으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 일관성과 관련성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합합니다. 그러나 나군 정시 모집에 대한 언급은 원본 텍스트의 주제와는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.579762451305002</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024 나군 정시 모집에 대한 정보는 제공된 자료에서 확인할 수 없습니다. 제공된 자료에는 '나군 실기/실적(경기실적우수자전형)', '나군 학생부교과(농어촌학생전형)', '나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)' 등에 대한 정보가 포함되어 있지만, 저소득 기회균등 전형에 대한 내용은 없습니다.
+저소득 기회균등 전형의 선발 여부는 각 대학에서 정하는 것이므로, 해당 대학의 입학처 웹사이트나 공식 안내서를 참조하시거나, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "2.5등급은 절사되지 않고 그대로 반영됩니다."라고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 절사되지 않는다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트에서 제공된 정보의 범위를 넘어서는 내용을 포함하고 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 절사 여부에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6615379470901828</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되지 않고 그대로 반영됩니다. 수능 최저등급에서 사탐 2과목 평균산출이란 2개 과목의 등급을 평균하여 계산한다는 의미입니다. 따라서 2.5등급이 나온다면 그대로 2.5등급으로 평균산출이 이루어집니다.
+만약 특정 모집단위에서 사탐 2과목 중 최저등급을 제외하고 평균산출한다면, 2.5와 다른 등급의 과목을 함께 평균산출하여 계산하게 됩니다. 하지만 일반적으로는 2.5등급이 나온다면 그대로 반영됩니다.
+자세한 내용은 해당 모집단위의 수능 전형성적 산출방법을 확인하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 4차 발표를 언급하고 있으며, 원본 텍스트와 상충하는 정보가 포함되어 있습니다. 또한, 1차 등록과 2차 등록에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 합격자 발표 일정에 대해 다루고 있으나, 4차 발표에 대한 잘못된 정보가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정한 흐름을 가지고 있으나, 4차 발표에 대한 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 4차 발표를 언급하고 있어 정확성이 낮습니다. 또한, 1차 및 2차 등록에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8159207215894408</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. **1차 발표**: 2024년 2월 14일 (수) 09:00에 이루어집니다.
+2. **1차 등록**: 이날 09:00~16:00까지 이루어집니다.
+3. **2차 발표**: 2024년 2월 15일 (목) 09:00에 이루어집니다.
+4. **2차 등록**: 이날 09:00~16:00까지 이루어집니다.
+이후에는 3차 이후의 합격자 발표 및 등록이 개별 전화 통보를 통해 이루어지며, 이는 2024년 2월 15일 (목) 19:00부터 2024년 2월 20일 (화) 18시까지 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 e-비즈니스학과의 수능 4개 영역 등급 평균을 4.78로 언급했으나, 이는 제공된 원문에 명시된 정보와 일치하지 않습니다. 원문에서는 최초 합격자와 최종 등록자의 평균 등급이 각각 4.17과 4.53으로 제시되어 있습니다. 따라서, 이 정보는 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충하는 정보를 포함하고 있습니다. 예를 들어, 경쟁률과 충원 합격자 수에 대한 정보는 원문에 포함되어 있지 않으며, 평균 등급에 대한 잘못된 정보로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 추가 합격 가능성에 대한 여러 요소를 고려하고 있습니다. 그러나 원문에서 제공된 구체적인 수치와 비교할 때 일부 정보가 부정확하여 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 약합니다. 특히, 평균 등급에 대한 잘못된 정보가 전체적인 일관성을 해치고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제공된 수치와 정보는 원문과 일치하지 않으며, 특히 평균 등급에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락에 맞는 내용을 포함하고 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6350995344022753</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 지원자의 수능 4개 영역 등급이 4.6이라면 평균보다는 약간 낮습니다.
+하지만, 정시 전형에 추가 합격 가능성을 판단하기 위해서는 여러 요소를 고려해야 합니다:
+1. **경쟁률**: e비즈니스학과의 경쟁률은 5.33입니다. 이는 충분히 높은 수준이며, 평균보다 낮은 점수로도 합격할 수 있지만, 확실한 것은 아닙니다.
+2. **충원 합격자 수**: e비즈니스학과의 모집 인원은 3명이고, 지원 인원이 16명입니다. 이는 충원 합격자가 3명이라는 것을 의미합니다.
+따라서, 수능 등급이 4.6이라면 추가 합격 가능성은 있지만 확실하지 않습니다. 정확한 판단을 위해서는 해당 대학의 최종 합격 기준과 경쟁률 등을 더 자세히 확인해 보시기 바랍니다.
+더 궁금하신 점이 있으시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 e비즈니스학과의 수능 4개 영역 등급 평균을 5.21로 제시하고 있지만, 원본 텍스트에서는 이 평균이 4.53이라고 명시되어 있습니다. 따라서, 생성된 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 정시 등급이 5.3일 경우 합격하기 어려울 수 있다고 언급하는 반면, 생성된 응답은 합격 가능성이 높다고 주장합니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 다소 비효율적입니다. 그러나 여전히 e비즈니스학과의 합격 가능성에 대한 논의는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 완전한 유창성을 평가하기는 어렵습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 사실에 기반하지 않기 때문에 완전한 일관성을 제공하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 4개 영역 등급 평균을 잘못 제시하고 있으며, 이로 인해 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않은 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장 구조가 명확하고 이해하기 쉬운 편입니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6050121625742956</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 e비즈니스학과의 수능 4개 영역 등급 평균은 5.21이며, 표준 편차는 0.33입니다. 이 정보를 바탕으로 정시 등급이 5.3인 경우 동의대학교에 최초 합격 가능성은 높아 보입니다.
+정시 등급이 평균보다 약간 높을 때, 경쟁률과 모집 인원 등을 고려하면 최소한 충원 합격 가능성은 있습니다. 하지만 정확히 최초 합격 가능성을 예측하기 위해서는 지원 인원, 경쟁률 등의 추가 정보가 필요합니다.
+만약에 더 자세한 분석을 원하시면, 해당 단과대학의 지원 인원 및 경쟁률 등을 확인해 보시기 바랍니다. 이와 함께 동의대학교의 입학 정책이나 전형 요소 반영 비율 등도 고려해야 할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않고, "현재 제공된 데이터만으로는 정확한 예비합격 여부를 판단하기 어렵다"는 주장을 하고 있습니다. 이는 원문에서 명시된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관되지 않으며, 예비 38번의 합격 가능성에 대한 모호한 설명을 제공합니다. 원문은 명확하게 가능성이 낮다고 언급하고 있으나, 생성된 응답은 가능성이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비합격 여부에 대한 정보를 제공하려고 하지만, 원문에서 요구하는 구체적인 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보와 조언을 포함하고 있어 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 예비합격 가능성에 대한 명확한 결론이 없고, 여러 주제가 혼합되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있습니다. 예비 38번의 합격 가능성에 대한 원문의 명확한 진술을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 맥락과 관련된 정보를 제공하지만, 예비합격 가능성에 대한 명확한 해답을 제시하지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 정보의 명확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5486672682600285</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위와 지원 자격에 대한 정보를 바탕으로, 현재 제공된 데이터만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 이정도 점수로는 특정 전공의 경쟁률과 지원 인원을 고려할 때 충분히 예비합격 가능성이 있지만, 확실한 답변을 위해서는 해당 전공의 평균 점수와 표준 편차 등을 더 자세히 분석해야 합니다.
+특정 전공에 대한 최종적인 예비합격 여부를 확인하려면, 해당 단과대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)에서 공시된 기준을 참고하거나, 직접 입학처와 상담하는 것이 가장 정확합니다.
+또한, 지원 자격과 제출 서류 등도 체크해야 합니다. 예를 들어, 농어촌학생전형이나 성인학습자 전형에 지원할 경우 추가적인 서류가 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 제공된 수치(영어 등급 3.88, 수능 점수 303.44 등)는 원본 텍스트에 명시된 내용과 일치하지 않습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(모집 인원, 지원 인원 등)는 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련성이 높지만, 원본 텍스트의 핵심 정보와는 다소 차이가 있는 추가 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 약화시킵니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답의 일부 정보는 원본 텍스트와 일치하지 않으며, 특히 수치와 관련된 부분에서 부정확성이 있습니다. 
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 추가 정보가 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.7454235963468954</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수로 동의대학교 간호학과에 합격할 확률은 매우 낮습니다. 간호학과는 일반적으로 높은 경쟁률을 보이며, 평균 수능 점수가 상당히 높습니다.
+간호학과의 지원 인원과 모집 인원을 확인해보면, 2024년도에 간호학과의 모집 인원이 110명이고, 지원 인원은 37명으로 경쟁률이 약 3.00입니다. 평균 수능 점수는 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수가 약 303.44로, 영어 등급은 평균 3.88입니다.
+당신의 점수인 3.44는 영어 등급으로 보면 매우 낮은 수준이며, 이는 합격 가능성에 큰 부정적인 영향을 미칠 것입니다. 따라서 동의대학교 간호학과에 합격하기 위해서는 더 높은 영어 점수를 얻거나 다른 대학에서 지원하는 것이 좋습니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 언급된 평균 영어 등급 1.86과 표준 편차 0.75는 원본 텍스트에 포함되어 있지 않은 정보입니다. 원본 텍스트는 평균 영어 등급이 2.34라고 명시하고 있으며, 이로 인해 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 특히, 평균 영어 등급에 대한 정보가 다르며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 평균 영어 등급에 대한 잘못된 정보로 인해 약간의 관련성이 떨어집니다. 그러나 합격 가능성에 대한 논의는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 평균 영어 등급에 대한 잘못된 정보가 흐름에 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히 평균 영어 등급에 대한 잘못된 수치가 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소가 있지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6211928563335749</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급으로 보이는데, 동의대학교 간호학과의 경우 평균 영어 등급이 1.86이며 표준 편차가 0.75입니다. 현재 제공된 정보만으로 판단하면, 2.52라는 점수는 동의대학교 간호학과의 평균보다 높습니다.
+하지만 최종 합격 가능성은 단순히 영어 등급뿐만 아니라 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합, 수능 4개 영역 등급, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 등의 다양한 요소를 고려해야 합니다. 따라서 정확한 판단을 위해서는 해당 모집단위의 평균 점수와 비교하여 전체적인 성적 경쟁력을 확인하는 것이 필요합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 학교 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 정시 모집군에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서 제공된 간호학과의 평균 등급과 합격 가능성에 대한 정보는 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 간호학과의 평균 등급에 대한 언급이 없고, 합격 가능성에 대한 결론도 다릅니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보를 다루지 않기 때문에 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 관련이 적어 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 반영하지 않으며, 간호학과의 평균 등급에 대한 정보가 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성 모두에서 부족함이 있어 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5840907396758463</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집군 변경 사항을 보면, 간호학과에 대한 정보는 직접적으로 제공되지 않았습니다. 간호학과가 정시 모집군에 포함되어 있는지, 그리고 학생부 종합 평가 영역이나 전형 요소 반영 비율 등이 어떻게 적용되는지는 추가 정보가 필요합니다.
+현재 제공된 정보만으로는 간호학과에 정시로 합격할 수 있을지 확답하기 어렵습니다. 정확한 답변을 위해서는 해당 대학의 2024학년도 입학규정이나 전형요소를 확인해보시거나, 대학 입학처에 직접 문의하시는 것이 좋겠습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크에서 대학 입학규정을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급을 1.86으로 제시하고 있지만, 원본 텍스트에서는 평균 영어 등급이 2.34로 명시되어 있습니다. 이로 인해 사실관계에 큰 오류가 발생하였고, 정시 성적 2.58이 평균보다 높은 성적이라고 언급했으나, 실제로는 평균보다 낮은 성적입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 특히, 영어 등급에 대한 정보가 상충하며, 정시 성적에 대한 해석도 원본과 다릅니다. 이러한 불일치로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집에 대한 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 정확한 해석이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 특히, 정시 성적에 대한 해석이 원본과 다르게 제시되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 평균 영어 등급에 대한 정보가 잘못되었습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실관계와 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 정보의 정확성이 떨어져 의미적으로 적절하지 않은 부분이 있습니다. 특히, 평균 등급에 대한 잘못된 해석이 문제입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.7207437440498325</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에서 지원자의 평균 점수가 제공되었습니다. 간호학과의 경우, 지원 인원이 145명이고, 경쟁률이 6.59입니다. 또한, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63이며, 영어 등급의 평균은 1.86입니다.
+당신이 제시한 정시 성적인 2.58는 영어 등급에 해당합니다. 현재 제공된 정보만으로 판단하면, 지원자의 영어 점수가 간호학과의 평균 영어 점수보다 낮습니다. 그러나 경쟁률과 지원 인원이 많아서 정확한 합격 가능성을 예측하기는 어렵습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 대학 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 예비 7번의 합격 가능성에 대한 명확한 언급이 부족하다. 따라서 일부 사실이 누락되었고, 원본의 핵심 정보를 완전히 반영하지 못했다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 예비 7번의 합격 가능성에 대한 원본의 주장을 명확히 반영하지 않는다. 경쟁률에 대한 언급은 있지만, 예비 7번의 상황에 대한 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 7번 지원자와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제인 예비 합격 가능성에 대한 직접적인 언급이 부족하다. 그러나 면접과 서류 평가에 대한 정보는 관련성이 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있다. 그러나 원본 텍스트의 핵심 주제와의 연결이 약해 다소 일관성이 떨어질 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 예비 7번의 합격 가능성에 대한 정보가 누락되어 있다. 따라서 정확성 점수가 낮아졌다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 예비 7번의 합격 가능성에 대한 명확한 언급이 부족하여 다소 아쉬운 점이 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6297317471991185</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 지원자의 경우, 게임공학과의 경쟁률이 5.33으로 높습니다. 모집인원은 3명이고 지원 인원이 16명이므로 충분히 경쟁이 치열할 수 있습니다.
+면접 점수와 서류 평가를 고려해야 합니다. 게임공학과의 경우, 면접에서는 지원동기 및 학업계획, 학업역량, 전공적합성에 대한 질문들이 주어집니다. 또한 서류평가에서 공동체역량, 학업역량, 전공적합성 등이 평가됩니다.
+7번 지원자의 성적과 활동 내용을 면접 및 서류평가 기준에 맞춰 잘 준비한다면 좋은 결과를 얻을 수 있을 것입니다. 특히, 지원동기와 입학 후의 학업 계획, 고교(직장) 생활 중 학업에 대한 어려움과 해결책, 본인이 의미하는 전공 관련 활동 등을 자세히 설명할 수 있도록 준비해보세요.
+더 궁금한 사항이 있으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 4개 영역 등급 평균이 4.78이라는 사실을 언급하고 있지만, 지원자의 수능 4개 영역 등급 평균이 4.16이라고 하여 현재의 평균보다 낮다고 잘못 설명하고 있습니다. 이는 사실과 일치하지 않으며, 추가 합격 가능성에 대한 정보도 원본 텍스트와 다르게 제시되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 수능 등급에 대한 해석이 일관되지 않습니다. 원본 텍스트는 4.16이 평균보다 높다고 명시하고 있으나, 생성된 응답에서는 낮다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으며, 면접 준비와 서류 평가에 대한 조언도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보에 대한 정확한 해석이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 수능 등급에 대한 잘못된 정보로 인해 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급에 대한 정보가 부정확하며, 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다. 특히, 지원자의 수능 등급이 평균보다 낮다고 언급한 부분이 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 면접 준비와 서류 평가에 대한 조언이 적절합니다. 그러나 수능 등급에 대한 잘못된 해석이 의미 전달에 영향을 미칩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 수능 등급에 대한 혼란스러운 설명이 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6673763551576811</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 모집 인원은 3명이며, 지원 인원은 16명으로 경쟁률이 5.33입니다. 수능 4개 영역 등급 평균은 4.78이고, 지원자의 수능 4개 영역 등급 평균이 4.16이라면, 현재의 평균보다 낮습니다.
+수능 4개 영역 등급 평균 점수는 합격에 큰 영향을 미치지만, 최종 합격 여부는 면접 성적과 서류 평가 결과를 포함하여 결정됩니다. 따라서 수능 점수가 조금 낮더라도, 면접에서 좋은 성적을 받고, 서류 평가에서도 우수한 결과를 얻으면 추가 합격이 가능할 수 있습니다.
+면접 시에는 지원동기와 입학 후의 학업 계획, 고교(직장) 생활 중 학업에 대한 어려움과 해결하기 위한 노력, 그리고 전공적합성에 대해 잘 준비하는 것이 중요합니다. 또한 제출서류의 진위 여부도 면밀히 검토될 수 있으므로, 모든 서류를 정확하게 작성해야 합니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적에 대한 직접적인 답변을 제공하지 않고, 등록금 납부 일정과 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적과 합격 가능성에 대한 언급이 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 주제와 관련된 정보가 부족하여 일관성이 떨어집니다. 특히, 정시 성적 3.75에 대한 직접적인 답변이 없고, 다른 정보로 대체되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 입학 전형과 관련된 정보를 제공하지만, 질문의 핵심인 정시 성적 3.75에 대한 직접적인 답변이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 주제의 일관성이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하지만, 질문에 대한 직접적인 답변이 부족하여 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 주제와 관련된 정보의 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 질문에 대한 직접적인 답변이 부족하여 의미의 적절성이 약간 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5942990372717823</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도의 입학 전형 일정을 보면, 최초 등록자의 경우 2024년 2월 7일부터 13일까지 등록금 납부를 마쳐야 합니다. 이 기간 내에 등록금을 납부하고 학교 지정은행에서 등록을 완료하면 가능합니다.
+현재 제공된 정보로는 경영정보학과의 정시 성적 3.75가 최초 등록자로 가능한지 직접적인 답변을 드리기 어렵습니다. 성적이 최소 점수를 충족하고, 기타 전형 요건(예: 학생부 교과성적, 면접 등)도 만족한다면 가능할 것으로 보입니다.
+만약 자세한 정보가 필요하시다면, 입학처 홈페이지 또는 관련 문의 창구에 직접 문의해보시는 것이 좋습니다. 더 정확한 답변을 얻으실 수 있습니다. https://ipsi. deu. ac. kr/main. do 를 참고하여 입학처와 연락을 취하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 가능성을 판단하기 위해 필요한 여러 요소를 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교하여 4.2의 성적이 낮다고 언급한 부분을 간과하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.2의 성적이 평균 이하라는 원본의 주장을 반영하지 않고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 가능성에 대한 정보를 제공하고 있으며, 관련된 추가 정보를 제시하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 평균 성적과의 비교가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 핵심 사실을 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 경영정보학과의 정시 합격 가능성에 대한 정보를 잘 전달하고 있습니다. 그러나 원본의 맥락을 완전히 반영하지는 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6836957555418524</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 정시 합격을 위해서는 해당 단과대학 및 모집단위의 최저 성적 기준, 지원 인원, 경쟁률 등을 고려해야 합니다.
+현재 제공된 데이터로는 다음과 같은 정보가 있습니다:
+- 2024학년도 인문사회과학대학 경영정보학과의 모집인원은 7명입니다.
+- 해당 학과의 지원 인원은 56명이며, 경쟁률이 8.00입니다.
+경쟁률이 높고 모집인원이 적기 때문에 충분한 성적을 보유하고 있어야 합니다. 제공된 성적이 4.2라면 이는 평균 이상의 점수를 의미합니다. 그러나 최저 학력 기준만으로 판단하기에는 부족할 수 있습니다.
+따라서, 경영정보학과 정시 지원 가능성을 확인하려면 다음과 같은 정보를 추가로 확인해야 합니다:
+1. 2024학년도 인문사회과학대학 경영정보학과의 최저 학력 기준.
+2. 해당 단과대학 및 모집단위의 입학사정관이 발표한 합격 예상 점수.
+추가 정보를 확인하시거나, https://ipsi. deu. ac. kr/main. do 를 참조하여 공식적인 합격 기준을 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 제공된 정보와 관련된 구체적인 수치(예: 평균 점수)와 비교하여 명확한 결론을 내리지 못하고 있습니다. 또한, '게임공학과'의 경쟁률과 평균 점수는 원문과 관련이 없으므로 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부 일치하지만, '게임공학과'의 예시를 들어 설명하는 부분에서 일관성이 부족합니다. 원문에서 언급된 경영정보학과의 평균 등급과 관련된 정보가 아닌 다른 학과의 정보를 사용하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, '게임공학과'의 예시가 포함되어 있어 약간의 주제 이탈이 발생합니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, '게임공학과'의 예시가 포함되어 있어 전체적인 일관성이 떨어집니다. 원문과의 연결이 명확하지 않아 독자가 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 비교할 때 일부 정확성을 결여하고 있습니다. 특히, '게임공학과'의 경쟁률과 평균 점수는 경영정보학과와 관련이 없으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 일관성과 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 대체로 적합하지만, '게임공학과'의 예시가 포함되어 있어 약간의 의미적 부적합성이 존재합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 내용이 혼란을 줄 수 있는 요소가 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6330259963564792</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 대한 정확한 합격 가능성 판단이 어렵습니다. 해당 대학의 모집단위와 지원 자격, 평균 점수 등 다양한 요소를 고려해야 합니다.
+특히, 경쟁률과 평균 점수가 중요한 요인으로 작용합니다. 예시로 들어본 2024학년도 모집단위 '게임공학과'의 경우, 경쟁률이 5.33이고 평균 점수는 303.05였습니다. 이와 비교해보면:
+- 현재의 정시 성적이 5.33이라는 점은 경쟁률과 비슷합니다.
+- 그러나 평균 점수가 303.05로, 현재의 정시 성적보다 높습니다.
+따라서, 동의대학교 경영정보학과 일반학생전형에 합격 가능성은 낮을 것으로 예상됩니다. 하지만 최종 결정을 내리기 위해서는 해당 대학의 모집요강과 평균 점수 등을 자세히 확인해야 합니다.
+더 정확한 판단을 위해, 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 입시 관련 전문가와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 성적 기준에 대한 명확한 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 성적과 비교하여 합격 가능성에 대한 구체적인 언급이 부족합니다. 그러나, 성적 기준을 확인해야 한다는 점은 원본과 일치합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 성적 기준에 대한 명확한 결론을 제시하지 않아 일관성이 떨어집니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 그 가능성을 부정확하게 표현하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 지원하기 위한 성적 기준에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나, 원본의 구체적인 데이터와 비교할 때 다소 일반적인 내용으로 느껴질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못한 점에서 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 기준을 명확히 반영하지 않으며, 3.33의 성적이 합격 가능성이 높다는 정보를 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나, 원본의 구체적인 데이터와 비교할 때 다소 일반적인 표현이 사용되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7540094863557569</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도에 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 지원하려면 성적 기준을 확인해야 합니다. 현재 정보로는 동의대식 정시 성적 3.33 정도가 바이오응용공학부 최초등록자로 가능할지 여부를 명확히 알 수 없습니다.
+2024학년도에 바이오응용공학부에 지원하려면, 해당 학과의 정시 모집 성적 기준을 확인해야 합니다. 일반적으로 대학마다 각 학과별로 정시 모집 시 최소 성적 기준이 설정되어 있습니다.
+따라서, 동의대학교 바이오응용공학부에 지원하려면, 해당 학과의 2024학년도 정시 모집 성적 기준을 확인하시기 바랍니다. 필요하다면, 대학 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크에서 동의대학교 입학처 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급보다 낮은 성적을 가지고 있다는 점을 간과하고 있습니다. 따라서, 합격 가능성이 낮다는 원본의 주장을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있다고 언급하지만, 원본 텍스트의 내용과는 일치하지 않는 부분이 있습니다. 원본에서는 4.4의 등급이 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 정보와 조언을 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하지만, 원본 텍스트의 평균 등급과 관련된 사실을 정확히 반영하지 못하고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 조언을 제공하며, 의미적으로 적절합니다. 그러나 원본의 핵심 사실을 간과한 점이 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.7056611124759662</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률과 모집인원을 고려해야 합니다. 방사선학과는 특정 전공이므로, 해당 학과의 모집인원과 지원 인원, 그리고 평균 등급 등을 확인해 보시는 것이 좋습니다.
+예를 들어, 2024년도에 방사선학과가 모집인원 15명이고, 지원 인원이 30명이라면 경쟁률은 약 2.0입니다. 이 경우, 평균 등급보다 높거나 비슷한 점수를 받은 지원자들이 선발될 가능성이 큽니다.
+따라서, 현재의 성적을 가지고 방사선학과에 지원하는 것은 가능하지만, 확실한 결과를 얻기 위해서는 해당 학과의 최신 모집 정보와 경쟁률 등을 확인하시고, 추가로 준비해야 할 부분이 있는지 점검해 보시는 것이 좋습니다.
+더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 방사선학과에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 점수와 합격 가능성에 대한 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 방사선학과의 평균 점수와 합격 가능성에 대한 내용을 부정확하게 해석하고 있습니다. 이로 인해 일관성 점수도 낮습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 방사선학과에 대한 추가 정보를 요청하는 내용이 포함되어 있지만, 원본 텍스트의 핵심 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과에 대한 정보가 부족하다고 주장하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성 모두에서 부족함이 있어 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 다르지만, 방사선학과에 대한 추가 정보를 요청하는 것은 적절합니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 표현되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6137436716152289</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터는 방사선학과에 대한 정보가 없어 정확한 판단을 하기 어렵습니다. 현재까지의 정보에서는 특정 학과의 경쟁률이나 평균 점수를 확인할 수 없습니다.
+만약 방사선학과에 대해 더 자세히 알고 싶으시다면, 해당 학과의 2024학년도 모집단위와 지원 인원, 경쟁률 등을 확인해 보시는 것이 좋습니다. 또한, 평균 점수와 표준 편차를 통해 지원 가능성을 판단하실 수 있습니다.
+만약 더 자세한 정보가 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 합격 가능성을 판단하기 어렵다고 언급하고 있지만, 원본 텍스트에서 제공된 정보는 성적이 평균보다 높고 경쟁률이 낮아졌다는 점을 강조하고 있습니다. 따라서, 원본 텍스트의 긍정적인 요소를 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성을 판단하기 어렵다는 주장은 원본 텍스트의 긍정적인 전망과 상충합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 포인트인 성적과 경쟁률에 대한 긍정적인 해석을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 성적과 경쟁률에 대한 긍정적인 해석을 간과하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 긍정적인 요소를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 긍정적인 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.553972200819298</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경찰행정학전공 농어촌 전형에 대한 정확한 합격 가능성을 판단하기 어렵습니다. 이전의 성적과 학업역량, 공동체 역량 등 다양한 요소가 서류평가에서 고려되기 때문입니다.
+특히, 나군의 경우 학생부종합전형을 통해 지원하므로, 단순한 GPA뿐만 아니라 학교생활기록부를 포함한 여러 자료들이 평가 대상이 됩니다. 따라서 3.66이라는 성적만으로는 판단하기 어렵습니다.
+추천되는 방법은 다음과 같습니다:
+1. 나군의 학생부종합전형 서류평가 영역별 세부평가 기준을 참고하여 자신의 자료를 체크합니다.
+2. 나군의 학생부종합전형 서류평가 영역 및 배점을 확인하여 각 영역에서 어떤 점수를 받을 수 있을지 예측해보는 것입니다.
+더 정확한 판단을 위해서는 나군의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자 순위가 높은 경우의 합격 가능성에 대한 일반적인 설명을 제공하지만, 원문에서 언급된 특정 학과에 대한 정보는 포함되어 있지 않다. 따라서 일부 사실은 정확하지만, 원문에서 제공된 구체적인 정보와는 다소 차이가 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관된 부분도 있지만, 예비 합격자 순위가 높다는 것이 낮은 합격 가능성을 의미한다고 언급한 부분은 원문과 상충하는 해석이다. 원문은 특정 학과에 대한 합격 가능성을 언급하고 있으므로, 이 부분에서 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자 순위와 관련된 여러 요인에 대해 설명하고 있으며, 지원자의 상황에 대한 조언을 제공하고 있다. 그러나 원문에서 제시된 특정 학과에 대한 정보는 다루지 않아서 약간의 관련성 부족이 있다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창하다. 문장 구조와 표현이 매끄럽다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있다. 그러나 원문과의 연결성이 약간 떨어져서 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제시된 구체적인 사실(특정 학과에 대한 합격 가능성)에 대한 정확한 반영이 부족하다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하고 관련성이 있으며, 여러 요인에 대한 설명이 잘 이루어져 있다. 그러나 사실성과 일관성에서 약간의 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 맥락과 관련된 의미를 잘 전달하고 있지만, 특정 학과에 대한 정보가 누락되어 있어 완전한 적절성은 떨어진다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.498225411036153</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자 순위는 높은 경쟁률을 의미합니다. 그러나 정시 일반학생 전형에서의 합격 여부는 여러 요인에 따라 결정되며, 예비 합격자 순위가 높더라도 최종 합격 여부는 수능 점수와 서류 평가 등이 포함되어 결정됩니다.
+특히, 동점자 처리 기준과 면접평가 결과 등이 중요하게 작용할 수 있으므로, 현재의 상황에서 확실한 답변을 드리기는 어렵습니다. 그러나 높은 예비 합격자 순위는 낮은 합격 가능성이라는 것을 의미합니다.
+추가적으로, 다음과 같은 조치를 취해보시면 도움이 될 수 있습니다:
+1. **수능 점수 향상**: 수능 점수를 높이는 것이 가장 중요한 요소입니다.
+2. **서류 평가 강화**: 학교생활기록부와 서류평가에서의 성적, 활동 등이 중요하므로 이를 강화해보세요.
+3. **면접 준비**: 면접 질문 공통문항을 통해 지원 동기와 학업 계획 등을 잘 준비하세요.
+최종적으로는 결과를 기다리면서도 다른 대안을 고려하는 것이 좋습니다. 예비 합격자 순위가 높다면, 추가적인 지원이나 대체 전형을 고려해보시는 것도 좋은 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보가 잘못된 것으로 보입니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 법학과와 법경찰행정학부의 모집 인원에 대한 정보를 제공하고 있습니다. 이는 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 경찰행정학과에 대한 평균 성적을 제공하고 있지만, 생성된 응답은 법경찰행정학부와 법학과에 대한 정보를 포함하고 있어 서로 충돌하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 경찰행정학과의 평균 성적에 대한 정보와는 관련성이 떨어집니다. 법경찰행정학부에 대한 언급은 원본 텍스트와 관련이 없으므로, 전반적인 관련성은 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 법경찰행정학부와 경찰행정학과에 대한 정보가 혼재되어 있어 논리적인 흐름이 다소 부족합니다. 정보가 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 정보는 원본에서 부정확하다고 명시되어 있으며, 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 이러한 점들이 종합적으로 반영되어 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않는 부분이 많습니다. 법경찰행정학부에 대한 언급은 원본의 주제와 맞지 않으며, 이는 의미적 적절성 점수를 낮추는 요소입니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 혼란으로 인해 일부 독자에게는 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.6896543883060294</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집인원과 지원자의 경쟁률을 고려해보겠습니다.
+- **법학과**:
+  - 정원 내 모집 인원: 40명
+  - 나군 일반 학생 모집 인원: 2명
+- **경찰행정학과**:
+  - 정원 내 모집 인원: 70명
+  - 나군 일반 학생 모집 인원: 7명
+이러한 정보를 바탕으로, 안정권을 위해서는 평균 성적이 4.5 이상 받는 것이 좋습니다. 문 닫고 들어갈 수 있는 경쟁력을 갖추려면 4.8~4.9 정도의 평균 성적을 받는 것이 목표일 수 있습니다.
+하지만, 이는 단순 추정이며 실제 지원자의 성적이 어떻게 분포되어 있는지, 그리고 다른 전형(예: 특기자전형 등)에 대한 경쟁률 등을 고려해야 합니다. 따라서 최종적인 결정을 내리기 위해서는 동의대학교 입학처 웹사이트나 공식 안내서를 확인하는 것이 가장 정확할 것입니다.
+더 자세한 정보가 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다는 사실을 정확히 반영하고 있으며, 정시 등급이 5.33인 경우의 합격 가능성에 대한 설명도 적절합니다. 그러나 아동학과의 평균 등급과 관련된 구체적인 수치(영어 등급 평균 6.33, 수능 4개 영역 등급 평균 7.08)가 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 명칭 변경과 관련된 정보를 제공하지만, 아동학과의 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 경쟁률과 모집 인원에 대한 정보는 추가되었지만, 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, 아동학과에 대한 지원 자료와 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되면서 원본 텍스트의 흐름과 약간의 차이가 발생했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있지만, 아동학과의 평균 등급에 대한 구체적인 수치가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 정보가 누락되어 있어 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 세부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6589707734795612</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과에 대한 지원 자료를 확인해보겠습니다.
+보육가정상담학과는 아동학과로 분류되었습니다. 2023년에는 "보육·가정상담학과"라는 학과명이 있었으나, 2024년에는 "아동학과"로 명칭 변경되었습니다.
+2024학년도 아동학과의 지원 자료는 다음과 같습니다:
+- 모집 인원: 22
+- 지원 인원: 145
+- 경쟁률: 6.59
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63입니다.
+정시 산출 등급이 5.33인 경우, 이는 매우 높은 등급이며, 동의대학교 아동학과의 평균 점수와 비교해보면 상당히 높습니다. 
+아동학과의 경쟁률이 6.59로 높기 때문에, 정시 산출 등급이 5.33인 지원자는 충분한 기회를 가질 수 있습니다.
+하지만 최종 합격 여부는 여러 요소에 따라 결정되므로, 동의대학교 입학사정관실에 문의하거나, 해당 학과의 입학 조건을 확인하는 것이 가장 정확할 것입니다. 
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격 가능성이 낮다고 언급하고 있지만, 원본 텍스트에서는 예비 12번을 받은 경우 합격 가능성이 아예 없는 것은 아니라고 명시하고 있습니다. 따라서, 생성된 응답은 원본의 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 합격 가능성에 대한 해석이 다릅니다. 원본에서는 가능성이 있다고 언급하는 반면, 생성된 응답에서는 가능성이 매우 낮다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 예비 번호와 충원 합격에 대한 정보를 제공합니다. 그러나 추가 지원 방법에 대한 언급은 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 합격 가능성에 대한 해석이 다르기 때문에 정확성에서 점수를 낮추었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족하지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 합격 가능성에 대한 해석이 다소 다르기 때문에 완벽하게 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문장은 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7066609124216734</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 충원 합격 3차 시기에 예비 12번을 받았다면, 합격 가능성은 매우 낮습니다. 일반적으로 충원 합격 단계에서는 정원이 이미 채워져 있어 추가로 합격하는 경우가 드뭅니다.
+만약에 합격 가능성을 높이기 위해서는 다음과 같은 방법을 고려해 볼 수 있습니다:
+1. **추가 지원**: 다른 충원 합격 단계에서 예비 순위를 유지하거나, 다른 전형(예: 특별전형)으로 지원할 수 있습니다.
+2. **서류 및 면접 준비 강화**: 서류와 면접 준비를 더욱 철저히 하여 동일한 충원 합격 단계에서 높은 순위를 유지하거나, 다음 단계로 올라갈 수 있도록 합니다.
+더 자세한 정보는 입학관리팀이나 대학 홈페이지의 전형 일정을 확인하시거나, 직접 문의해보시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트에서 최신 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과의 평균 수능 점수와 관련된 정보가 정확하지 않습니다. 유아교육학과의 평균 수능 점수는 4.18로, 4.75로 지원하기 어려울 것이라는 원본 텍스트의 내용과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 주장하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어려울 것이라고 명시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대해 논의하고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 유아교육학과에 지원할 수 있다고 주장하지만, 원본 텍스트에서는 지원하기 어려울 것이라고 명시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 유아교육학과에 대한 논의가 이루어지고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 내용이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7755658350301355</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급은 상당히 높은 점수입니다. 평균이 426.25이고 표준 편차가 14.02인 수능 4개 영역의 가산점 포함 합격 점수를 고려할 때, 4.75는 상당히 높은 성적입니다.
+유아교육학과의 경우, 지원자의 경쟁률과 모집 인원을 고려하면 이 성적이 충분히 가능합니다. 유아교육학과의 평균 수능 점수는 약 370점대에서 410점대로 범위가 넓습니다. 따라서 4.75라는 높은 등급으로 지원한다면 경쟁률이 낮고 모집 인원이 적은 학과에서는 충분히 가능할 것입니다.
+하지만 유아교육학과의 경우, 지원자의 수능 점수 외에도 학업역량, 공동체역량, 전공적합성 등 다양한 요소가 평가되기 때문에, 단순히 수능 점수만으로 판단하기보다는 전체적인 지원 자격을 고려해야 합니다. 
+따라서, 4.75라는 높은 수능 등급으로 유아교육학과를 지원한다면 좋은 결과를 얻을 가능성이 큽니다. 하지만 최종 결정은 입학사정관의 평가와 경쟁률에 따라 달라질 수 있으므로, 정확한 정보는 해당 대학의 입학처에서 확인하는 것이 좋습니다. 더 자세한 내용이 필요하시다면 "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 평균 환산등급 5.41은 원본 텍스트에 명시된 아동학과의 평균 등급 6.33과 수능 4개 영역 등급 평균 7.08과 일치하지 않으며, 이는 잘못된 정보입니다. 또한, 4.16의 정시 등급이 아동학과의 평균 등급보다 낮다고 언급했지만, 원본 텍스트에서는 4.16이 평균 등급보다 높다고 명시되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 4.16이 평균 등급보다 높다고 하였으나, 생성된 응답은 이를 반대로 해석하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 지원자의 합격 가능성에 대한 논의가 포함되어 있습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히 평균 등급에 대한 잘못된 해석이 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6166988197824971</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과(아동학과)의 평균 환산등급은 5.41입니다. 현재 제시된 환산등급인 4.16은 이보다 낮습니다. 따라서, 일반학생전형으로 지원하시면 충분히 경쟁이 치열할 수 있으며, 합격 확률이 높지 않을 것으로 예상됩니다.
+추합까지 생각하신다면, 추합 점수를 확인해보시는 것이 좋겠습니다. 추합 점수가 더 높아서 합격 가능성은 조금 더 높아질 수 있지만 여전히 경쟁이 치열할 것입니다.
+만약 자세한 정보가 필요하시거나 추가로 도움이 필요하다면, https://ipsi. deu. ac. kr/main. do를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고, 정시 지원에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 정보를 포함하고 있습니다. 원본 텍스트는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 지원을 위한 정보를 제공합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 질문과 관련이 없으며, 정시 지원이 불가능하다는 사실을 무시하고 다른 정보를 제공합니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 부정확하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.492405506270936</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 해당 학과의 모집 단과대학은 ICT융합공과대학이며, 모집단위는 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)입니다. 
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 305.14이며, 영어 등급의 평균은 3.25입니다. 따라서, 지원을 고려할 때는 이와 유사한 점수를 받는 것이 좋습니다.
+하지만 정확한 지원 가능 여부와 필요 점수는 해당 대학의 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)에서 최신 정보를 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접에서 전공적합성과 세특 내용의 중요성을 강조하고 있으며, 서류 평가와 면접 평가의 중요성을 잘 설명하고 있습니다. 그러나 원문에서 언급된 '학생부 교과성적'에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 서류 평가와 면접 평가의 중요성을 다루고 있습니다. 다만, 원문에서 명시된 '학생부 교과성적'에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높으며, 면접 준비에 대한 구체적인 조언을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, '학생부 교과성적'에 대한 언급이 없어서 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일부 정보 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 면접 준비에 대한 적절한 조언을 제공합니다. 그러나 원문에서 언급된 특정 요소에 대한 언급이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 더 간결하게 표현될 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.5234373400477638</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접에서는 지원자의 전반적인 역량을 평가하기 위해 다양한 요소를 고려합니다. 특히, '전공적합성'과 관련된 세특 내용이 중요하게 다루어집니다. 따라서, 지원자가 본인의 경험과 노력에 대해 자세히 설명할 수 있도록 세특 내용을 충분히 준비하는 것이 좋습니다.
+또한, 면접에서는 서류평가에서 보지 못한 지원자의 실질적인 역량을 평가하기 때문에, 실제 활동이나 성과를 구체적으로 설명하는 것이 중요합니다. 예를 들어, 창의적 체험활동, 동아리활동, 진로활동 등에 참여했던 경험과 그 결과를 자세히 기재해야 합니다.
+따라서, 서류평가와 면접 평가 모두에서 중요한 역할을 하는데, 이 두 부분을 잘 준비하는 것이 중요합니다. 특히, 세특 내용은 면접에서도 많이 다루어질 수 있으므로, 이를 충분히 준비하고 설명하는 것이 좋습니다.
+더 자세한 정보를 원하시면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 구체적인 정보를 제공하지 않고, 다른 학과의 정보를 언급하며 혼란을 초래합니다. 원본 텍스트의 핵심 사실인 4.12의 평균 등급과 4.08의 성적 비교를 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 4.08의 성적이 최초합격 가능성이 있음을 언급하고 있지만, 생성된 응답은 이를 부정하는 내용으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 다른 학과에 대한 정보로 전환합니다. 이는 질문의 주제와 관련이 있지만, 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 부족하여 일관된 메시지를 전달하지 못합니다. 원본 텍스트의 주제와 관련된 정보가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 4.08의 성적에 대한 정확한 해석을 제공하지 않습니다. 이는 정보의 정확성을 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해하기 어려운 부분이 있으며, 원본 텍스트의 핵심 내용을 명확히 전달하지 못합니다. 따라서 이해 가능성이 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.6389452105343075</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보는 제공된 데이터에서 확인되지 않았습니다. 해당 학과의 모집단위와 지원 인원, 경쟁률 등 구체적인 정보가 필요합니다.
+만약 다른 학과에 대해 질문하신다면, 위에서 제공된 데이터를 참고하실 수 있습니다. 예를 들어, '디지털콘텐츠학과'의 경우 평균 국어+수학+탐구(2개) 표준 변환 점수 합이 309.12이고, 영어 등급의 평균이 3.00입니다.
+따라서, 정시 성적이 4.08인 경우, 다른 학과들에 비해 상대적으로 낮은 점수를 보여주고 있습니다. 그러나 동의대학교 소프트웨어공학부의 경쟁률과 모집 인원 등을 확인해야 합니다.
+만약 더 구체적인 정보가 필요하시다면, 제공된 데이터 중에서 가장 가까운 학과나 관련된 학과의 정보를 참고해 보시는 것이 좋습니다. 만약 여전히 불확실한 부분이 있다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 제공되지 않았다는 점을 언급하고 있으나, 전기공학과와 전자공학과의 군 분류에 대한 정보는 원본 텍스트와 관련이 없습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 전기공학과와 전자공학과의 군 분류에 대한 언급은 원본 텍스트와 일관성이 없습니다. 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 정시 평균 5등급 지원 가능 여부에 대한 질문에 답변하고 있으므로 관련성이 높습니다. 그러나 전기공학과와 전자공학과에 대한 언급은 질문의 핵심과는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족합니다. 전기공학과와 전자공학과의 군 분류에 대한 언급이 원본 텍스트의 주제와 연결되지 않아 일관된 구조를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 전기공학과와 전자공학과에 대한 언급은 원본 텍스트와 관련이 없으므로 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성, 정확성에서 부족함이 있어 종합적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하지 않으며, 전기공학과와 전자공학과에 대한 언급이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 원본 텍스트와의 관련성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6538193733064009</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 경우, 정시모집군 변경으로 인해 전기공학과와 전자공학과가 각각 '가'군과 '나'군으로 분류되었습니다. 하지만 제공된 데이터는 디지털콘텐츠학과, ICT융합공과대학의 게임공학과, 영화학과, 예술디자인체육대학의 패션디자인학과 등에 대한 정보입니다.
+따라서 소프트웨어융합학과의 정시 평균 5등급으로 지원 가능 여부는 제공된 데이터로는 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집 인원, 지원 인원, 경쟁률, 평균 점수 등의 정보를 포함하고 있지만, 이러한 세부 사항은 원본 텍스트에 명시되어 있지 않습니다. 따라서, 원본 텍스트의 정보와 일치하지 않는 부분이 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 포함하고 있습니다. 예를 들어, 원본 텍스트는 합격 가능성에 대한 판단을 제공하지만, 생성된 응답은 구체적인 경쟁률과 점수에 대한 정보를 추가하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본의 핵심 질문에 대한 직접적인 답변이 아니므로 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 매끄럽지 않고 논리적인 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에 포함된 정보는 원본 텍스트와 일치하지 않으며, 특히 경쟁률과 평균 점수에 대한 정보는 확인되지 않은 내용입니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과 관련이 있지만, 추가된 정보가 원본의 의미를 왜곡할 수 있어 의미 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 과다로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6539088479956172</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 모집인원은 5명이고, 지원 인원이 22명으로 경쟁률이 4.40입니다. 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 309.12이며, 이는 지원자의 성적이 4.28인 경우에 비해 높습니다.
+이러한 정보를 바탕으로, 지원자의 수능 4개 영역 등급 평균이 4.28이라면 충분히 경쟁력을 갖추고 있을 것으로 보입니다. 그러나 최종 합격 여부는 서류평가와 면접 등의 결과에 따라 결정되므로, 지원자는 서류를 잘 준비하고 면접에서도 좋은 성과를 내는 것이 중요합니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 잘못되어 있습니다. 원문에서는 자기소개서가 필요 없다고 명시하고 있지만, 생성된 응답에서는 일반적인 학생이 자기소개서를 작성해야 할 수도 있다고 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있지만, 생성된 응답은 다른 전형에 대한 정보를 추가하면서 모순된 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 주제에서 벗어난 정보가 많습니다. 원문이 특정 전형에 대한 질문에 대한 간단한 답변을 제공하는 반면, 생성된 응답은 다른 전형에 대한 불필요한 세부사항을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족합니다. 원문과의 연결이 약해져서 전체적으로 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있지만, 생성된 응답은 이를 부정하는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 불일치가 심각하여 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않습니다. 원문이 요구하는 정보와는 다른 방향으로 나아가고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 떨어져서 전체적인 이해가 어렵습니다. 한국어 사용자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.4245059104132138</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的学生不需要写自述书。对于东义大学的普通学生入学考试，主要考虑的是学科成绩、标准化考试成绩（如高考）、以及部分科目等级等。如果申请的是需要提交额外材料的特殊类型招生，则可能会有要求。
+但是，如果你是申请“나군 학생부종합 (평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형)”这类入学方式的话，可能需要撰写自述书。具体要求请参考相关招生简章或直接访问东义大学的官方网站获取最新信息。
+如果不确定，请访问 https://ipsi. deu. ac. kr/main. do 以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 표준 편차에 대한 구체적인 수치를 포함하지 않고 있습니다. 또한, 4.5라는 점수가 상대적으로 높다는 주장은 다소 주관적이며, 원본 텍스트의 정보와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가 모집에 대한 정보와 관련된 세부 사항이 다소 다르게 표현되어 있습니다. 예를 들어, 경쟁률과 모집 인원에 대한 설명은 원본 텍스트에서 다루지 않은 내용입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 정시 모집과 추가 모집에 대한 정보를 다루고 있습니다. 그러나 원본 텍스트의 특정 세부 사항을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장에서 다소 복잡한 표현이 사용되어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 특히, 평균 점수와 관련된 정보가 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 세부 사항을 충분히 반영하지 못하고 있습니다. 따라서 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 주관적인 해석이 포함되어 있어 완벽하게 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7292813387452824</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 정시 모집에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 310.88입니다. 이 값과 비교해보면, 4.5라는 점수가 상대적으로 높습니다.
+하지만 추가모집에 들어갈 수 있는지 여부는 여러 요소가 영향을 미칩니다:
+1. **경쟁률**: 각 모집단위의 경쟁률이 매우 중요합니다. 경쟁률이 높다면, 4.5라는 점수로도 충분히 합격할 수 있는 확률은 낮아질 수 있습니다.
+2. **모집인원 및 지원인원**: 모집인원과 지원인원의 비율을 고려해야 합니다. 예를 들어, 한의예과에서 3명 모집하고 21명이 지원하면 경쟁률이 높지만, 조선해양공학과에서는 12명 모집하고 10명이 지원하므로 경쟁률이 낮습니다.
+3. **가산점**: 일부 단과대학에서 가산점을 부여하는 경우가 있습니다. 이 점수를 고려하면 실제 점수가 더 높아질 수 있습니다.
+4. **기타 평가 요소**: 학생부 종합, 실기/실적 등 다른 평가 요소도 중요한 역할을 합니다.
+따라서, 4.5라는 점수로 추가모집에 들어갈 확률은 높지만, 정확한 답변을 위해서는 해당 단과대학 및 모집단위의 경쟁률과 지원인원 등을 확인해야 합니다. 더 자세한 정보를 얻기 위해서는 [https://ipsi. deu.ac.kr/main.do](https://ipsi. deu.ac.kr/main.do)로 접속하여 공식 홈페이지에서 제공하는 정보를 참고하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급에 대한 정보는 포함하고 있지만, 경쟁률, 모집인원, 지원인원 등의 추가 정보를 제공하고 있습니다. 그러나 이러한 정보는 원본 텍스트에 명시되어 있지 않으므로, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보가 원본과의 일관성을 떨어뜨립니다. 예를 들어, 평균 등급에 대한 언급이 없고, 경쟁률과 모집인원에 대한 정보는 원본 텍스트와 관련이 없습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해져서 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급에 대한 정보가 부족하고, 추가된 정보가 원본 텍스트와의 정확성을 떨어뜨립니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 유창성과 관련성에서 높은 점수를 받았지만, 사실성과 일관성에서 다소 부족하여 종합적인 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서 적합합니다. 그러나 원본 텍스트와의 관련성이 떨어져서 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6423321569601549</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 경우, 지원자의 경쟁률이 1.78이며, 모집인원은 56명이고 지원인원은 81명입니다. 또한, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.97점으로 알려져 있습니다.
+이러한 정보를 바탕으로, 동의대학교 신소재공학과에 대한 정시 등급을 추정해보면 대략적으로 1.5등급 이상이 필요할 것으로 예상됩니다. 하지만 이는 추정치이며 실제 합격 가능 등급은 모집단위별 지원자들의 성적 분포와 경쟁률에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 잘못된 것으로 보입니다. 원본 텍스트에서는 평균 점수가 378.15점이라고 명시되어 있는데, 생성된 응답에서는 447점이 작년 평균보다 약간 높다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 447점이 평균보다 훨씬 높은 점수라고 했지만, 생성된 응답에서는 447점이 평균보다 약간 낮을 수 있다고 언급하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 정보와는 다소 거리가 있습니다. 그러나 여전히 동아대학교의 입학 관련 정보에 대한 질문에 답변하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히 평균 점수에 대한 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 의미 전달이 명확하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7449033210406529</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동아대학교 정시 모집에서 표준 변환 점수 합의 평균은 453.83점으로, 작년에 비해 약간 높아졌습니다. 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 이는 작년의 경쟁률이나 지원 인원 등이 현재와 비교하여 다소 달라진 결과일 수 있습니다.
+현재 표준 변환 점수 합이 447점으로 환산되었다면, 작년보다 약간 낮은 점수가 되어도 충분히 경쟁력을 갖추고 있을 가능성이 있습니다. 하지만 최종 평균 점수가 작년에 비해 높아졌다는 점을 고려하면, 작년과 동일한 결과를 얻기 위해서는 더 높은 표준 변환 점수를 유지하거나 경쟁률이 낮아진 경우가 필요할 것입니다.
+따라서, 현재의 표준 변환 점수가 447점이라면, 작년에 비해 약간 낮은 점수로도 충분히 가능성이 있을 수 있습니다. 하지만 확실한 것은 경쟁률과 지원 인원 등이 어떻게 변화할 것인가에 따라 달라질 수 있다는 것입니다.
+더 자세한 정보를 얻기 위해서는 동아대학교 입학처 웹사이트나 관련 공지사항을 확인하시거나, 직접 입학처와 문의해보시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하고 있지만, 원본 텍스트에서 제공된 평균 성적 데이터와 비교할 때 구체적인 수치나 기준이 부족하여 다소 불확실한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적 기준에 대한 구체적인 수치가 다소 다르게 제시되어 있어 일관성이 떨어집니다. 예를 들어, 원본 텍스트는 평균 성적에 대한 정보를 제공하는 반면, 생성된 응답은 특정 점수 기준을 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부의 합격 가능성에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 다소 일반적인 정보로 한정되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 일부 부분에서 정보의 흐름이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 평균 성적 데이터와 비교할 때 구체적인 수치가 부족하여 정확성이 떨어집니다. 또한, 제시된 성적 기준이 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 신소재공학부의 합격 가능성에 대한 정보를 제공합니다. 그러나 일부 세부 사항에서 다소 모호한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 주요 요인들을 명확하게 설명하고 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.572929909776752</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2 정도로 나오는 경우, 신소재공학과 일반학생전형에 붙을 수 있을지는 여러 요인에 따라 다릅니다.
+신소재공학과 일반학생전형의 경우, 주요 평가 요인은 다음과 같습니다:
+1. **수능 성적**: 국어, 수학(미적분 또는 기하), 영어, 탐구 등 반영영역 및 잔영비율에 따라 점수가 합산됩니다.
+2. **학생부 교과 성적**: 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균이 반영됩니다.
+4.1~4.2 정도의 성적이면, 수능 점수와 학생부 교과 성적이 어느 정도 상승을 보여주어야 합니다. 특히, 수학(미적분 또는 기하)에서 10% 가산점이 적용되는 경우를 고려하면, 수학 성적이 높아야 합니다.
+따라서, 다음과 같은 점수와 등급을 갖추면 신소재공학과 일반학생전형에 붙는 것이 가능할 것입니다:
+- **국어**: 104 이상
+- **수학(미적분 또는 기하)**: 108 이상 (가산점 적용 시 118.8 이상)
+- **영어**: 4등급 이상
+- **탐구**: 사회, 과학 등급 평균이 높아야 합니다.
+만약 이러한 점수와 등급을 갖추지 못한다면, 다른 전형이나 대학을 고려해 보는 것이 좋습니다. 또한, 정시 모집의 경우, 여러 대학과 전형을 다양하게 지원하는 것이 중요합니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나, 입시 상담 센터에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적에 대한 구체적인 수치를 제공하지 않고, 평균적인 점수를 제시하고 있습니다. 그러나 제공된 평균 점수는 원본 텍스트의 정보와 일치하지 않으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 점수들을 제시하고 있습니다. 예를 들어, 국어, 수학, 외국어, 탐구의 평균 등급이 원본 텍스트의 정보와 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 지원자들이 자신의 성적을 확인할 수 있도록 안내하고 있습니다. 그러나 원본 텍스트의 구체적인 성적 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 정보 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 정보와 다르며, 이는 정확성에 큰 영향을 미칩니다. 제공된 평균 점수는 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 정확성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 제공된 정보가 원본 텍스트와 일치하지 않기 때문에 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 지원자들이 필요한 정보를 쉽게 파악할 수 있도록 돕고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7598809105293854</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과로 수능 일반학생전형을 지원하는 경우, 평균적인 합격 점수를 제공하겠습니다. 
+인공지능학과는 수능 4개 영역(국어, 수학, 외국어, 탐구)의 등급을 기반으로 합격자를 선발합니다. 2024년 동의대학교 인공지능학과의 지원자들의 평균적인 수능 4개 영역 등급은 다음과 같습니다:
+- 국어: 4.65
+- 수학: 4.87
+- 외국어(영어): 3.88
+- 탐구: 4.60
+이러한 평균적인 점수를 기준으로, 지원자들은 자신의 성적을 확인하여 합격 가능성을 판단할 수 있습니다. 실제 합격 가능성은 지원자의 개인별 성적이므로, 이 기준점들을 참고하시면 좋겠습니다.
+만약 더 자세한 정보나 추가로 궁금한 점이 있다면, "https://ipsi. deu. ac. kr/main. do"를 방문하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적이 높은 점수라고 언급하고 있으며, 여러 단과대학에서 충원이 가능하다고 설명하고 있습니다. 그러나, 특정 학과에 대한 정보가 부족하고, 일부 학과의 평균 성적을 명시하지 않아 정확한 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 특정 학과에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 예를 들어, "한의과대학"의 두 과목만 언급하고 있으며, 다른 학과에 대한 정보는 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27의 성적과 관련된 정보를 제공하고 있으며, 충원 합격 가능성에 대한 논의가 이루어지고 있습니다. 그러나, 원본 텍스트의 구체적인 학과 정보가 누락되어 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 명확합니다. 그러나, 특정 학과에 대한 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 응답은 5.27의 성적이 높은 점수라고 언급하고 있지만, 구체적인 학과의 평균 성적과 비교하여 충원 합격 가능성을 명확히 제시하지 못하고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 유창하고 관련성이 있으며, 일부 사실적 정확성은 부족하지만, 전반적인 품질은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합합니다. 그러나, 특정 학과에 대한 정보가 부족하여 완전한 적합성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6328582986072068</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 매우 높은 점수입니다. 현재 제공된 데이터를 바탕으로, 대부분의 단과대학 및 모집단위에서 5.27 이상의 점수로 충원이 가능합니다.
+특히, "한의과대학"의 "한의예과(수학&lt;미적분/기하&gt;)"와 "한의예과(수학&lt;확률과통계&gt;)"는 매우 높은 경쟁률을 보이고 있지만, 5.27 이상의 점수로 충원이 가능합니다.
+또한, "공과대학"의 모집단위들에서도 5.27 이상의 점수로 충원이 가능한 경우가 많습니다.
+따라서, 5.27이라는 높은 점수를 가지고 있다면, 대부분의 단과대학 및 모집단위에서 추합 가능할 것으로 보입니다. 하지만, 최종 결정은 입학사정관들의 평가와 지원자의 전형별 요구사항에 따라 달라질 수 있으므로, 정확한 정보는 대학 홈페이지를 확인하시거나 직접 문의하시는 것이 좋습니다.
+더 자세한 정보를 원하신다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 소프트웨어공학부의 평균 수능 4개 영역 등급이 5.92라고 언급되었으나, 이는 원본 텍스트에서 제공된 정보와 상충합니다. 원본 텍스트에서는 평균 등급이 4.49로 명시되어 있습니다. 또한, 정시 성적 4.2가 평균보다 낮다고 언급했지만, 원본 텍스트에서는 4.2가 평균보다 높은 성적이라고 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 평균 등급과 관련된 정보에서 큰 차이가 있습니다. 이러한 불일치는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 정시 성적 4.2에 대한 합격 가능성을 논의하고 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 없거나 부정확합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히 평균 등급과 관련된 수치가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하려고 했으나, 잘못된 정보로 인해 의미가 왜곡되었습니다. 일부 내용은 적절하지만, 전반적으로는 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 명확한 표현이 많지만, 정보의 정확성이 떨어져 이해에 어려움을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.729077228571793</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2의 경우 합격 가능성은 어느 정도일지 추정해보겠습니다.
+소프트웨어공학부의 평균 수능 4개 영역 등급은 5.92이며, 표준 편차는 1.05입니다. 이는 전체 지원자의 성적 분포를 나타내며, 평균보다 높은 점수를 받은 학생들이 많다는 것을 의미합니다.
+정시 성적 4.2는 수능 등급으로 변환하면 약 360점대의 표준 변환 점수가 됩니다 (평균이 539.24이고 표준 편차가 0.79인 경우를 가정하여 추정). 이는 평균보다 상당히 낮은 수치입니다.
+따라서, 정시 성적 4.2의 경우 동의대학교 소프트웨어공학부에 합격하기 위해서는 다음과 같은 조건을 충족해야 합니다:
+1. 특별한 경쟁력 있는 실적이나 활동이 있어야 합니다.
+2. 다른 전형 (예: 학생부종합, 특기자 등)을 통해 지원하는 것이 좋습니다.
+결론적으로, 정시 성적 4.2로는 소프트웨어공학부에 합격하기 어려울 것으로 보입니다. 그러나 특별한 경쟁력 있는 활동이나 실적이 있다면 합격 가능성은 조금 더 높아질 수 있습니다. 자세한 정보는 동의대학교 입시 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급(영어 4.82, 수능 5.73)에 대한 직접적인 언급이 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 정시 성적 3.92가 일반학생전형에 지원 가능성을 논의하고 있습니다. 그러나 원본 텍스트의 평균 등급과 비교하는 부분이 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주어진 질문에 대해 매우 관련성이 높으며, 화학환경공학부의 일반학생전형에 대한 지원 가능성을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 3.92에 대한 해석을 제공하지만, 원본 텍스트의 평균 등급과의 비교가 부족하여 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 일관성에서 높은 점수를 받았습니다. 그러나 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부 사항에서 더 명확한 설명이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6481453812969816</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적이 주어졌을 때, 화학환경공학부의 일반학생전형에 지원이 가능한지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **성적 산출방법**: 주어진 정보에서 "동의대식 정시 성적 산출로 3.92 나오는데"라는 문장은 학생부 교과성적이 아닌 정시 성적을 의미하는 것 같습니다. 화학환경공학부 일반학생전형에 지원할 때는 주로 학생부 교과성적이 반영됩니다.
+2. **반영교과성적**: 화학환경공학부의 경우, 일반적으로 학생부 교과성적이 반영되며, 이는 국어, 수학, 영어, 과학 등의 성적을 포함합니다. 정시 성적 3.92가 주어졌다면, 이는 대체로 고등학교에서 받은 점수를 의미하며, 이 점수가 학생부 교과성적으로 반영될 것입니다.
+3. **전형요소**: 화학환경공학부의 일반학생전형에서는 학생부 교과성적이 주요 요소 중 하나로 반영되며, 이는 고등학교에서 받은 성적을 기반으로 합니다. 따라서 정시 성적 3.92가 주어졌다면, 이 점수가 학생부 교과성적으로 반영되어 일반학생전형에 지원이 가능할 것입니다.
+따라서, 주어진 정시 성적 3.92를 학생부 교과성적으로 반영한다면 화학환경공학부의 일반학생전형에 지원이 가능한 것으로 판단됩니다. 하지만 최종 결정은 동의대학교 입학처에서 확인해야 합니다. 더 자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 정보를 제공하는 대신, 제공된 정보만으로는 합격 가능성을 판단하기 어렵다고 언급하고 있습니다. 이는 원본 텍스트에서 제시된 명확한 데이터와 결론과 상반되는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 결론과 상반되는 내용을 포함하고 있습니다. 원본 텍스트는 성적 4.25가 합격 가능성이 높다고 판단했지만, 생성된 응답은 판단하기 어렵다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부와 관련된 정보를 제공하고 있으며, 추가적인 정보 출처를 제시하고 있습니다. 그러나 원본 텍스트의 핵심 결론을 무시하고 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 결론과 상반되는 내용을 포함하고 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 결론을 왜곡하고 있습니다. 원본 텍스트는 성적 4.25가 합격 가능성이 높다고 명시했으나, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 결론을 무시하고 있어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 명확한 정보 제공을 위해 추가적인 웹사이트를 제시하고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6501440024029148</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부의 수능 일반학생전형 경쟁률과 평균 점수를 정확히 알 수 없습니다. 따라서, 현재 상황에서 정시 성적이 4.25인 경우 동의대학교 화학환경공학부에 합격 가능할 것인지 판단하기 어렵습니다.
+더 자세한 정보를 얻기 위해서는 다음과 같은 웹사이트를 참조하거나, 동의대학교 입학처에 직접 문의하는 것이 좋습니다:
+- https://ipsi. deu. ac. kr/main. do
+이 웹사이트에서 동의대학교 화학환경공학부의 수능 일반학생전형 경쟁률과 평균 점수를 확인할 수 있습니다. 이를 바탕으로 자신의 성적과 학교의 입학 기준을 비교하여 합격 가능성을 판단해 보세요.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제공된 데이터에 기반하여 4.2라는 점수에 대한 분석을 잘 수행하고 있으며, 평균 점수와 표준 편차를 언급하고 있습니다. 그러나 "4.2라는 점수는 평균보다 약간 낮은 수치입니다"라는 부분은 다소 모호하게 표현되어 있어, 정확한 비교가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 유지되고 있으며, 합격 가능성에 대한 논의도 원본의 내용을 잘 반영하고 있습니다. 다만, "경쟁률이 2.20이라는 낮은 수치"라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 일관성 문제가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 지원자의 점수와 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장은 더 명확하게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 점수와 관련된 정보도 정확하게 전달하고 있습니다. 그러나 경쟁률에 대한 정보는 원본에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 경쟁률에 대한 언급은 원본에 없으므로 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 더 간결하게 표현될 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6007167097882355</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 분석해보겠습니다.
+영화학과의 경우, "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"의 평균이 404.43이고, 표준 편차는 27.09입니다. 이 데이터를 바탕으로 보면, 4.2라는 점수는 평균보다 약간 낮은 수치입니다.
+하지만 합격 여부는 단순히 점수만으로 판단하기 어렵습니다. 다른 요소들, 예를 들어 서류평가 영역에서의 성적, 면접 결과 등도 중요한 역할을 합니다. 또한 경쟁률이 2.20이라는 낮은 수치로 보아, 영화학과는 상대적으로 지원자가 적어 합격 가능성은 높다고 볼 수 있습니다.
+따라서, 4.2라는 점수만으로는 확실한 결론을 내리기 어렵습니다. 하지만 현재의 성적은 좋은 평가를 받을 수 있는 기반입니다. 서류평가와 면접 등 다른 요소들도 잘 준비한다면 합격 가능성은 높아 보입니다.
+더 자세한 정보나 추가적인 지원 전략이 필요하시다면, "https://ipsi. deu. ac. kr/main. do"를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 원본의 내용을 잘 요약하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 단계가 동일하게 나열되어 있습니다. 추가된 문장도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 면접 절차에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9556123063978877</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 바탕으로 면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
